--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18DC1DA-2762-419E-8774-9211BF711E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D992BF-E623-486A-A6B6-670589AD2F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
@@ -1250,7 +1250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,12 +1279,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2017,7 +2011,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2273,7 +2267,7 @@
         <v>109</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C21" si="0">C5+1000</f>
+        <f t="shared" ref="C6:C20" si="0">C5+1000</f>
         <v>4000</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2760,8 +2754,7 @@
         <v>143</v>
       </c>
       <c r="E16">
-        <f>VLOOKUP(A16,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F16">
         <f>VLOOKUP(A16,Balance!A:F,3,FALSE)</f>
@@ -2808,8 +2801,7 @@
         <v>144</v>
       </c>
       <c r="E17">
-        <f>VLOOKUP(A17,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F17">
         <f>VLOOKUP(A17,Balance!A:F,3,FALSE)</f>
@@ -2856,8 +2848,7 @@
         <v>145</v>
       </c>
       <c r="E18">
-        <f>VLOOKUP(A18,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F18">
         <f>VLOOKUP(A18,Balance!A:F,3,FALSE)</f>
@@ -2904,8 +2895,7 @@
         <v>146</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(A19,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F19">
         <f>VLOOKUP(A19,Balance!A:F,3,FALSE)</f>
@@ -2952,8 +2942,7 @@
         <v>147</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP(A20,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F20">
         <f>VLOOKUP(A20,Balance!A:F,3,FALSE)</f>
@@ -2993,15 +2982,14 @@
         <v>105</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>19000</v>
+        <f>C20+500</f>
+        <v>18500</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E21">
-        <f>VLOOKUP(A21,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="F21">
         <f>VLOOKUP(A21,Balance!A:F,3,FALSE)</f>
@@ -3044,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
   <dimension ref="A5:AB34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3096,7 +3084,7 @@
       </c>
       <c r="J7">
         <f>ROUNDUP(T34/(N28*J5),0)</f>
-        <v>292</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -3125,7 +3113,7 @@
       </c>
       <c r="J9">
         <f>ROUNDUP((T34-(N28*J8))/(N28*J5),0)</f>
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="L9" t="s">
         <v>91</v>
@@ -3284,7 +3272,7 @@
       </c>
       <c r="J11">
         <f>ROUNDUP((T34-(N28*J8)-(N28*J10))/(N28*J5),0)</f>
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -4325,14 +4313,14 @@
         <v>27</v>
       </c>
       <c r="P24" s="7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q24">
         <v>0.2</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="8"/>
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="S24">
         <f t="shared" si="6"/>
@@ -4340,11 +4328,11 @@
       </c>
       <c r="T24" s="8">
         <f t="shared" si="9"/>
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="U24" s="9">
         <f t="shared" si="2"/>
-        <v>28.571428571428573</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>6</v>
@@ -4404,14 +4392,14 @@
         <v>90</v>
       </c>
       <c r="P25" s="7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q25">
         <v>0.06</v>
       </c>
       <c r="R25" s="8">
         <f>Q25*P25*100</f>
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="S25">
         <f t="shared" si="6"/>
@@ -4419,11 +4407,11 @@
       </c>
       <c r="T25" s="8">
         <f>S25*P25</f>
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="U25" s="9">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>5</v>
@@ -4483,14 +4471,14 @@
         <v>31</v>
       </c>
       <c r="P26" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q26">
         <v>20000000</v>
       </c>
       <c r="R26" s="8">
         <f>Q26*P26</f>
-        <v>40000000000</v>
+        <v>80000000000</v>
       </c>
       <c r="S26">
         <f t="shared" si="6"/>
@@ -4498,11 +4486,11 @@
       </c>
       <c r="T26" s="8">
         <f>S26*P26</f>
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="U26" s="9">
         <f t="shared" si="2"/>
-        <v>28.125</v>
+        <v>56.25</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>32</v>
@@ -4562,14 +4550,14 @@
         <v>26</v>
       </c>
       <c r="P27" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q27">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="R27" s="8">
         <f>Q27*P27*100</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="S27">
         <f t="shared" si="6"/>
@@ -4577,11 +4565,11 @@
       </c>
       <c r="T27" s="8">
         <f>S27*P27</f>
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="U27" s="9">
         <f t="shared" si="2"/>
-        <v>29.411764705882351</v>
+        <v>58.823529411764703</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>5</v>
@@ -4641,14 +4629,14 @@
         <v>128</v>
       </c>
       <c r="P28" s="7">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q28">
         <v>0.03</v>
       </c>
       <c r="R28" s="8">
         <f>Q28*P28*100</f>
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="S28">
         <f t="shared" si="6"/>
@@ -4656,11 +4644,11 @@
       </c>
       <c r="T28" s="8">
         <f>S28*P28</f>
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="U28" s="9">
         <f t="shared" si="2"/>
-        <v>27.777777777777779</v>
+        <v>69.444444444444443</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>34</v>
@@ -4720,14 +4708,14 @@
         <v>35</v>
       </c>
       <c r="P29" s="7">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q29">
         <v>0.05</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="8"/>
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="S29">
         <f t="shared" si="6"/>
@@ -4735,11 +4723,11 @@
       </c>
       <c r="T29" s="8">
         <f t="shared" si="9"/>
-        <v>22000</v>
+        <v>55000</v>
       </c>
       <c r="U29" s="9">
         <f t="shared" si="2"/>
-        <v>28.94736842105263</v>
+        <v>72.368421052631575</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>36</v>
@@ -4799,14 +4787,14 @@
         <v>37</v>
       </c>
       <c r="P30" s="7">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q30">
         <v>10</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="8"/>
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="S30">
         <f t="shared" si="6"/>
@@ -4814,11 +4802,11 @@
       </c>
       <c r="T30" s="8">
         <f t="shared" si="9"/>
-        <v>22000</v>
+        <v>55000</v>
       </c>
       <c r="U30" s="9">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>68.75</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>38</v>
@@ -4878,14 +4866,14 @@
         <v>40</v>
       </c>
       <c r="P31" s="7">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q31">
         <v>1E-3</v>
       </c>
       <c r="R31" s="8">
         <f>Q31*P31*100</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S31">
         <f t="shared" si="6"/>
@@ -4893,11 +4881,11 @@
       </c>
       <c r="T31" s="8">
         <f>S31*P31</f>
-        <v>24000</v>
+        <v>60000</v>
       </c>
       <c r="U31" s="9">
         <f t="shared" si="2"/>
-        <v>28.571428571428573</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>39</v>
@@ -4957,14 +4945,14 @@
         <v>30</v>
       </c>
       <c r="P32" s="7">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q32">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="R32" s="8">
         <f>Q32*P32*100</f>
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="S32">
         <f t="shared" si="6"/>
@@ -4972,11 +4960,11 @@
       </c>
       <c r="T32" s="8">
         <f>S32*P32</f>
-        <v>24000</v>
+        <v>60000</v>
       </c>
       <c r="U32" s="9">
         <f t="shared" si="2"/>
-        <v>27.272727272727273</v>
+        <v>68.181818181818187</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>5</v>
@@ -5036,14 +5024,14 @@
         <v>41</v>
       </c>
       <c r="P33" s="7">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q33">
         <v>1E-3</v>
       </c>
       <c r="R33" s="8">
         <f>Q33*P33*100</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S33">
         <f t="shared" si="6"/>
@@ -5051,11 +5039,11 @@
       </c>
       <c r="T33" s="8">
         <f>S33*P33</f>
-        <v>26000</v>
+        <v>65000</v>
       </c>
       <c r="U33" s="9">
         <f t="shared" si="2"/>
-        <v>28.260869565217391</v>
+        <v>70.652173913043484</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>43</v>
@@ -5094,7 +5082,7 @@
       </c>
       <c r="T34" s="8">
         <f>SUM(T10:T28)</f>
-        <v>209600</v>
+        <v>294600</v>
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="1" t="s">
@@ -5478,7 +5466,7 @@
       </c>
       <c r="C21" s="11">
         <f>VLOOKUP(A21,Balance!L:R,7,FALSE)</f>
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="D21" s="4">
         <v>14000</v>
@@ -5500,7 +5488,7 @@
       </c>
       <c r="C22" s="11">
         <f>VLOOKUP(A22,Balance!L:R,7,FALSE)</f>
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="D22" s="4">
         <v>15000</v>
@@ -5522,7 +5510,7 @@
       </c>
       <c r="C23" s="11">
         <f>VLOOKUP(A23,Balance!L:R,7,FALSE)</f>
-        <v>40000000000</v>
+        <v>80000000000</v>
       </c>
       <c r="D23" s="4">
         <v>16000</v>
@@ -5544,7 +5532,7 @@
       </c>
       <c r="C24" s="11">
         <f>VLOOKUP(A24,Balance!L:R,7,FALSE)</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D24" s="4">
         <v>17000</v>
@@ -5566,7 +5554,7 @@
       </c>
       <c r="C25" s="11">
         <f>VLOOKUP(A25,Balance!L:R,7,FALSE)</f>
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="D25" s="4">
         <v>18000</v>
@@ -5588,7 +5576,7 @@
       </c>
       <c r="C26" s="11">
         <f>VLOOKUP(A26,Balance!L:R,7,FALSE)</f>
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="D26" s="4">
         <v>19000</v>
@@ -5610,7 +5598,7 @@
       </c>
       <c r="C27" s="11">
         <f>VLOOKUP(A27,Balance!L:R,7,FALSE)</f>
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="D27" s="4">
         <v>20000</v>
@@ -5632,7 +5620,7 @@
       </c>
       <c r="C28" s="11">
         <f>VLOOKUP(A28,Balance!L:R,7,FALSE)</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D28" s="4">
         <v>21000</v>
@@ -5654,7 +5642,7 @@
       </c>
       <c r="C29" s="11">
         <f>VLOOKUP(A29,Balance!L:R,7,FALSE)</f>
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="D29" s="4">
         <v>22000</v>
@@ -5676,7 +5664,7 @@
       </c>
       <c r="C30" s="11">
         <f>VLOOKUP(A30,Balance!L:R,7,FALSE)</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D30" s="4">
         <v>23000</v>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D992BF-E623-486A-A6B6-670589AD2F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45A1A00-AA1E-4B75-86ED-A01610D985E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
@@ -2011,7 +2011,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2083,8 +2083,7 @@
         <v>129</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(A2,Balance!L:S,5,FALSE)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F2">
         <f>VLOOKUP(A2,Balance!A:F,3,FALSE)</f>
@@ -2130,8 +2129,7 @@
         <v>130</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(A3,Balance!L:S,5,FALSE)</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F3">
         <f>VLOOKUP(A3,Balance!A:F,3,FALSE)</f>
@@ -2178,8 +2176,7 @@
         <v>131</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(A4,Balance!L:S,5,FALSE)</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F4">
         <f>VLOOKUP(A4,Balance!A:F,3,FALSE)</f>
@@ -2226,8 +2223,7 @@
         <v>132</v>
       </c>
       <c r="E5">
-        <f>VLOOKUP(A5,Balance!L:S,5,FALSE)</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F5">
         <f>VLOOKUP(A5,Balance!A:F,3,FALSE)</f>
@@ -2274,8 +2270,7 @@
         <v>133</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(A6,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F6">
         <f>VLOOKUP(A6,Balance!A:F,3,FALSE)</f>
@@ -2322,8 +2317,7 @@
         <v>134</v>
       </c>
       <c r="E7">
-        <f>VLOOKUP(A7,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F7">
         <f>VLOOKUP(A7,Balance!A:F,3,FALSE)</f>
@@ -2370,8 +2364,7 @@
         <v>135</v>
       </c>
       <c r="E8">
-        <f>VLOOKUP(A8,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F8">
         <f>VLOOKUP(A8,Balance!A:F,3,FALSE)</f>
@@ -2418,8 +2411,7 @@
         <v>136</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(A9,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F9">
         <f>VLOOKUP(A9,Balance!A:F,3,FALSE)</f>
@@ -2466,8 +2458,7 @@
         <v>137</v>
       </c>
       <c r="E10">
-        <f>VLOOKUP(A10,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F10">
         <f>VLOOKUP(A10,Balance!A:F,3,FALSE)</f>
@@ -2514,8 +2505,7 @@
         <v>138</v>
       </c>
       <c r="E11">
-        <f>VLOOKUP(A11,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F11">
         <f>VLOOKUP(A11,Balance!A:F,3,FALSE)</f>
@@ -2562,8 +2552,7 @@
         <v>139</v>
       </c>
       <c r="E12">
-        <f>VLOOKUP(A12,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F12">
         <f>VLOOKUP(A12,Balance!A:F,3,FALSE)</f>
@@ -2610,8 +2599,7 @@
         <v>140</v>
       </c>
       <c r="E13">
-        <f>VLOOKUP(A13,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F13">
         <f>VLOOKUP(A13,Balance!A:F,3,FALSE)</f>
@@ -2658,8 +2646,7 @@
         <v>141</v>
       </c>
       <c r="E14">
-        <f>VLOOKUP(A14,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F14">
         <f>VLOOKUP(A14,Balance!A:F,3,FALSE)</f>
@@ -2706,8 +2693,7 @@
         <v>142</v>
       </c>
       <c r="E15">
-        <f>VLOOKUP(A15,Balance!L:S,5,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F15">
         <f>VLOOKUP(A15,Balance!A:F,3,FALSE)</f>
@@ -2754,7 +2740,7 @@
         <v>143</v>
       </c>
       <c r="E16">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F16">
         <f>VLOOKUP(A16,Balance!A:F,3,FALSE)</f>
@@ -2801,7 +2787,7 @@
         <v>144</v>
       </c>
       <c r="E17">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F17">
         <f>VLOOKUP(A17,Balance!A:F,3,FALSE)</f>
@@ -2848,7 +2834,7 @@
         <v>145</v>
       </c>
       <c r="E18">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F18">
         <f>VLOOKUP(A18,Balance!A:F,3,FALSE)</f>
@@ -2895,7 +2881,7 @@
         <v>146</v>
       </c>
       <c r="E19">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F19">
         <f>VLOOKUP(A19,Balance!A:F,3,FALSE)</f>
@@ -2942,7 +2928,7 @@
         <v>147</v>
       </c>
       <c r="E20">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F20">
         <f>VLOOKUP(A20,Balance!A:F,3,FALSE)</f>
@@ -2989,7 +2975,7 @@
         <v>148</v>
       </c>
       <c r="E21">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F21">
         <f>VLOOKUP(A21,Balance!A:F,3,FALSE)</f>
@@ -2997,7 +2983,7 @@
       </c>
       <c r="G21">
         <f>VLOOKUP(A21,Balance!L:S,6,FALSE)</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H21">
         <f>VLOOKUP(A21,Balance!L:S,8,FALSE)</f>
@@ -3033,7 +3019,7 @@
   <dimension ref="A5:AB34"/>
   <sheetViews>
     <sheetView topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3084,7 +3070,7 @@
       </c>
       <c r="J7">
         <f>ROUNDUP(T34/(N28*J5),0)</f>
-        <v>410</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -3113,7 +3099,7 @@
       </c>
       <c r="J9">
         <f>ROUNDUP((T34-(N28*J8))/(N28*J5),0)</f>
-        <v>267</v>
+        <v>676</v>
       </c>
       <c r="L9" t="s">
         <v>91</v>
@@ -3203,25 +3189,25 @@
         <v>7</v>
       </c>
       <c r="P10" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>40</v>
       </c>
       <c r="R10" s="8">
         <f>Q10*P10*100</f>
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10" s="8">
-        <f t="shared" ref="T10:T17" si="0">S10*P10</f>
-        <v>100</v>
+        <f>S10*P10</f>
+        <v>200</v>
       </c>
       <c r="U10" s="9">
         <f>T10/(N10*$J$5)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>5</v>
@@ -3272,7 +3258,7 @@
       </c>
       <c r="J11">
         <f>ROUNDUP((T34-(N28*J8)-(N28*J10))/(N28*J5),0)</f>
-        <v>205</v>
+        <v>614</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -3281,32 +3267,32 @@
         <v>999</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N33" si="1">ROUNDUP((M11+1)/100,0)</f>
+        <f t="shared" ref="N11:N33" si="0">ROUNDUP((M11+1)/100,0)</f>
         <v>10</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="P11" s="7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
       <c r="R11" s="8">
         <f>Q11*P11</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="S11">
         <v>2</v>
       </c>
       <c r="T11" s="8">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <f>S11*P11</f>
+        <v>2000</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" ref="U11:U33" si="2">T11/(N11*$J$5)</f>
-        <v>25</v>
+        <f>T11/(N11*$J$5)</f>
+        <v>50</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>6</v>
@@ -3318,7 +3304,7 @@
         <v>10</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" ref="Y11:Y32" si="3">X11*W11*100</f>
+        <f t="shared" ref="Y11:Y32" si="1">X11*W11*100</f>
         <v>1000</v>
       </c>
       <c r="Z11">
@@ -3359,32 +3345,32 @@
         <v>1999</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q12">
         <v>4</v>
       </c>
       <c r="R12" s="8">
         <f>Q12*P12*100</f>
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="S12">
         <v>2</v>
       </c>
       <c r="T12" s="8">
-        <f t="shared" si="0"/>
-        <v>2000</v>
+        <f>S12*P12</f>
+        <v>4000</v>
       </c>
       <c r="U12" s="9">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f>T12/(N12*$J$5)</f>
+        <v>50</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>9</v>
@@ -3403,11 +3389,11 @@
         <v>0</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA28" si="4">Z12*W12</f>
+        <f t="shared" ref="AA12:AA28" si="2">Z12*W12</f>
         <v>0</v>
       </c>
       <c r="AB12" s="9">
-        <f t="shared" ref="AB12:AB33" si="5">AA12/(N12*$J$5)</f>
+        <f>AA12/(N12*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -3437,33 +3423,33 @@
         <v>2999</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P13" s="7">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q13">
         <v>3</v>
       </c>
       <c r="R13" s="8">
         <f>Q13*P13</f>
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="S13">
         <f>S11+1</f>
         <v>3</v>
       </c>
       <c r="T13" s="8">
-        <f t="shared" si="0"/>
-        <v>4500</v>
+        <f>S13*P13</f>
+        <v>9000</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" si="2"/>
-        <v>37.5</v>
+        <f>T13/(N13*$J$5)</f>
+        <v>75</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>11</v>
@@ -3475,18 +3461,18 @@
         <v>450</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB13" s="9">
-        <f t="shared" si="5"/>
+        <f>AA13/(N13*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -3516,33 +3502,33 @@
         <v>3999</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>120</v>
       </c>
       <c r="P14" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
       </c>
       <c r="R14" s="8">
         <f>Q14*P14*100</f>
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:S33" si="6">S12+1</f>
+        <f t="shared" ref="S14:S33" si="3">S12+1</f>
         <v>3</v>
       </c>
       <c r="T14" s="8">
-        <f t="shared" si="0"/>
-        <v>6000</v>
+        <f>S14*P14</f>
+        <v>12000</v>
       </c>
       <c r="U14" s="9">
-        <f t="shared" si="2"/>
-        <v>37.5</v>
+        <f>T14/(N14*$J$5)</f>
+        <v>75</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>13</v>
@@ -3554,18 +3540,18 @@
         <v>0.1</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB14" s="9">
-        <f t="shared" si="5"/>
+        <f>AA14/(N14*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -3595,33 +3581,33 @@
         <v>4999</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P15" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q15">
         <v>2000</v>
       </c>
       <c r="R15" s="8">
         <f>Q15*P15*100</f>
-        <v>400000000</v>
+        <v>800000000</v>
       </c>
       <c r="S15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="T15" s="8">
-        <f t="shared" si="0"/>
-        <v>8000</v>
+        <f>S15*P15</f>
+        <v>16000</v>
       </c>
       <c r="U15" s="9">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f>T15/(N15*$J$5)</f>
+        <v>80</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>6</v>
@@ -3633,18 +3619,18 @@
         <v>2000</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>200000</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB15" s="9">
-        <f t="shared" si="5"/>
+        <f>AA15/(N15*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -3674,33 +3660,33 @@
         <v>5999</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P16" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q16">
         <v>1E-4</v>
       </c>
       <c r="R16" s="8">
         <f>Q16*P16*100</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="T16" s="8">
-        <f t="shared" si="0"/>
-        <v>8000</v>
+        <f>S16*P16</f>
+        <v>16000</v>
       </c>
       <c r="U16" s="9">
-        <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
+        <f>T16/(N16*$J$5)</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>5</v>
@@ -3712,7 +3698,7 @@
         <v>800</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>80000</v>
       </c>
       <c r="Z16">
@@ -3753,33 +3739,33 @@
         <v>6999</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P17" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q17">
         <v>4</v>
       </c>
       <c r="R17" s="8">
         <f>Q17*P17*100</f>
-        <v>800000</v>
+        <v>1600000</v>
       </c>
       <c r="S17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" si="0"/>
-        <v>10000</v>
+        <f>S17*P17</f>
+        <v>20000</v>
       </c>
       <c r="U17" s="9">
-        <f t="shared" si="2"/>
-        <v>35.714285714285715</v>
+        <f>T17/(N17*$J$5)</f>
+        <v>71.428571428571431</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>43</v>
@@ -3802,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="9">
-        <f t="shared" ref="AB17" si="7">AA17/(N17*$J$5)</f>
+        <f>AA17/(N17*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -3832,33 +3818,33 @@
         <v>7999</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P18" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q18">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="R18" s="8">
-        <f t="shared" ref="R18:R30" si="8">Q18*P18*100</f>
-        <v>50</v>
+        <f>Q18*P18*100</f>
+        <v>100</v>
       </c>
       <c r="S18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T18" s="8">
-        <f t="shared" ref="T18:T30" si="9">S18*P18</f>
-        <v>10000</v>
+        <f>S18*P18</f>
+        <v>20000</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="2"/>
-        <v>31.25</v>
+        <f>T18/(N18*$J$5)</f>
+        <v>62.5</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>123</v>
@@ -3870,18 +3856,18 @@
         <v>3</v>
       </c>
       <c r="Y18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB18" s="9">
-        <f t="shared" si="5"/>
+        <f>AA18/(N18*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -3911,33 +3897,33 @@
         <v>8999</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P19" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q19">
         <v>0.5</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" si="8"/>
-        <v>100000</v>
+        <f>Q19*P19*100</f>
+        <v>200000</v>
       </c>
       <c r="S19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="T19" s="8">
-        <f t="shared" si="9"/>
-        <v>12000</v>
+        <f>S19*P19</f>
+        <v>24000</v>
       </c>
       <c r="U19" s="9">
-        <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
+        <f>T19/(N19*$J$5)</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>20</v>
@@ -3949,18 +3935,18 @@
         <v>2.5</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB19" s="9">
-        <f t="shared" si="5"/>
+        <f>AA19/(N19*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -3990,33 +3976,33 @@
         <v>9999</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="P20" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q20">
         <v>0.4</v>
       </c>
       <c r="R20" s="8">
         <f>Q20*P20*100</f>
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="S20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="T20" s="8">
         <f>S20*P20</f>
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="U20" s="9">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>T20/(N20*$J$5)</f>
+        <v>60</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>22</v>
@@ -4028,7 +4014,7 @@
         <v>2.5</v>
       </c>
       <c r="Y20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="Z20">
@@ -4069,33 +4055,33 @@
         <v>10999</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P21" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q21">
         <v>0.01</v>
       </c>
       <c r="R21" s="8">
         <f>Q21*P21*100</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="S21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="T21" s="8">
         <f>S21*P21</f>
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="U21" s="9">
-        <f t="shared" si="2"/>
-        <v>31.818181818181817</v>
+        <f>T21/(N21*$J$5)</f>
+        <v>63.636363636363633</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>6</v>
@@ -4107,7 +4093,7 @@
         <v>10000</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="Z21">
@@ -4148,33 +4134,33 @@
         <v>11999</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P22" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q22">
         <v>0.3</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="8"/>
-        <v>60000</v>
+        <f>Q22*P22*100</f>
+        <v>120000</v>
       </c>
       <c r="S22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="T22" s="8">
-        <f t="shared" si="9"/>
-        <v>14000</v>
+        <f>S22*P22</f>
+        <v>28000</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" si="2"/>
-        <v>29.166666666666668</v>
+        <f>T22/(N22*$J$5)</f>
+        <v>58.333333333333336</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>24</v>
@@ -4186,18 +4172,18 @@
         <v>1.25</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB22" s="9">
-        <f t="shared" si="5"/>
+        <f>AA22/(N22*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -4227,33 +4213,33 @@
         <v>12999</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P23" s="7">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q23">
         <v>0.1</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="8"/>
-        <v>20000</v>
+        <f>Q23*P23*100</f>
+        <v>40000</v>
       </c>
       <c r="S23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="9"/>
-        <v>16000</v>
+        <f>S23*P23</f>
+        <v>32000</v>
       </c>
       <c r="U23" s="9">
-        <f t="shared" si="2"/>
-        <v>30.76923076923077</v>
+        <f>T23/(N23*$J$5)</f>
+        <v>61.53846153846154</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>43</v>
@@ -4276,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="9">
-        <f t="shared" ref="AB23" si="10">AA23/(N23*$J$5)</f>
+        <f>AA23/(N23*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -4306,33 +4292,33 @@
         <v>13999</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P24" s="7">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q24">
         <v>0.2</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="8"/>
-        <v>60000</v>
+        <f>Q24*P24*100</f>
+        <v>120000</v>
       </c>
       <c r="S24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="9"/>
-        <v>24000</v>
+        <f>S24*P24</f>
+        <v>48000</v>
       </c>
       <c r="U24" s="9">
-        <f t="shared" si="2"/>
-        <v>42.857142857142854</v>
+        <f>T24/(N24*$J$5)</f>
+        <v>85.714285714285708</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>6</v>
@@ -4344,18 +4330,18 @@
         <v>50000</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB24" s="9">
-        <f t="shared" si="5"/>
+        <f>AA24/(N24*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -4385,33 +4371,33 @@
         <v>14999</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>90</v>
       </c>
       <c r="P25" s="7">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q25">
         <v>0.06</v>
       </c>
       <c r="R25" s="8">
         <f>Q25*P25*100</f>
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="S25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="T25" s="8">
         <f>S25*P25</f>
-        <v>27000</v>
+        <v>54000</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <f>T25/(N25*$J$5)</f>
+        <v>90</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>5</v>
@@ -4423,7 +4409,7 @@
         <v>2000</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>200000</v>
       </c>
       <c r="Z25">
@@ -4464,33 +4450,33 @@
         <v>15999</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P26" s="7">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q26">
         <v>20000000</v>
       </c>
       <c r="R26" s="8">
         <f>Q26*P26</f>
-        <v>80000000000</v>
+        <v>160000000000</v>
       </c>
       <c r="S26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="T26" s="8">
         <f>S26*P26</f>
-        <v>36000</v>
+        <v>72000</v>
       </c>
       <c r="U26" s="9">
-        <f t="shared" si="2"/>
-        <v>56.25</v>
+        <f>T26/(N26*$J$5)</f>
+        <v>112.5</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>32</v>
@@ -4502,7 +4488,7 @@
         <v>0.1</v>
       </c>
       <c r="Y26" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Z26">
@@ -4513,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="9">
-        <f t="shared" si="5"/>
+        <f>AA26/(N26*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -4543,33 +4529,33 @@
         <v>16999</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P27" s="7">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q27">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="R27" s="8">
         <f>Q27*P27*100</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="S27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="T27" s="8">
         <f>S27*P27</f>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="U27" s="9">
-        <f t="shared" si="2"/>
-        <v>58.823529411764703</v>
+        <f>T27/(N27*$J$5)</f>
+        <v>117.64705882352941</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>5</v>
@@ -4581,7 +4567,7 @@
         <v>10000</v>
       </c>
       <c r="Y27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="Z27">
@@ -4622,33 +4608,33 @@
         <v>17999</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>128</v>
       </c>
       <c r="P28" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q28">
         <v>0.03</v>
       </c>
       <c r="R28" s="8">
         <f>Q28*P28*100</f>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="S28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="T28" s="8">
         <f>S28*P28</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="U28" s="9">
-        <f t="shared" si="2"/>
-        <v>69.444444444444443</v>
+        <f>T28/(N28*$J$5)</f>
+        <v>138.88888888888889</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>34</v>
@@ -4660,18 +4646,18 @@
         <v>0.1</v>
       </c>
       <c r="Y28" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB28" s="9">
-        <f t="shared" si="5"/>
+        <f>AA28/(N28*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -4701,33 +4687,33 @@
         <v>18999</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P29" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q29">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" si="8"/>
-        <v>25000</v>
+        <f>Q29*P29*100</f>
+        <v>100000</v>
       </c>
       <c r="S29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="T29" s="8">
-        <f t="shared" si="9"/>
-        <v>55000</v>
+        <f>S29*P29</f>
+        <v>110000</v>
       </c>
       <c r="U29" s="9">
-        <f t="shared" si="2"/>
-        <v>72.368421052631575</v>
+        <f>T29/(N29*$J$5)</f>
+        <v>144.73684210526315</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>36</v>
@@ -4739,7 +4725,7 @@
         <v>0.1</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Z29">
@@ -4750,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="9">
-        <f t="shared" si="5"/>
+        <f>AA29/(N29*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -4780,33 +4766,33 @@
         <v>19999</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P30" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q30">
         <v>10</v>
       </c>
       <c r="R30" s="8">
-        <f t="shared" si="8"/>
-        <v>5000000</v>
+        <f>Q30*P30*100</f>
+        <v>10000000</v>
       </c>
       <c r="S30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="T30" s="8">
-        <f t="shared" si="9"/>
-        <v>55000</v>
+        <f>S30*P30</f>
+        <v>110000</v>
       </c>
       <c r="U30" s="9">
-        <f t="shared" si="2"/>
-        <v>68.75</v>
+        <f>T30/(N30*$J$5)</f>
+        <v>137.5</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>38</v>
@@ -4818,7 +4804,7 @@
         <v>0.1</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Z30">
@@ -4829,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="9">
-        <f t="shared" si="5"/>
+        <f>AA30/(N30*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -4859,33 +4845,33 @@
         <v>20999</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P31" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q31">
         <v>1E-3</v>
       </c>
       <c r="R31" s="8">
         <f>Q31*P31*100</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="S31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="T31" s="8">
         <f>S31*P31</f>
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="U31" s="9">
-        <f t="shared" si="2"/>
-        <v>71.428571428571431</v>
+        <f>T31/(N31*$J$5)</f>
+        <v>142.85714285714286</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>39</v>
@@ -4897,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="Z31">
@@ -4908,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="9">
-        <f t="shared" si="5"/>
+        <f>AA31/(N31*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -4938,33 +4924,33 @@
         <v>21999</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P32" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q32">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="R32" s="8">
         <f>Q32*P32*100</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="S32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="T32" s="8">
         <f>S32*P32</f>
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="U32" s="9">
-        <f t="shared" si="2"/>
-        <v>68.181818181818187</v>
+        <f>T32/(N32*$J$5)</f>
+        <v>136.36363636363637</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>5</v>
@@ -4976,7 +4962,7 @@
         <v>20000</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
       <c r="Z32">
@@ -5017,33 +5003,33 @@
         <v>22999</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P33" s="7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q33">
         <v>1E-3</v>
       </c>
       <c r="R33" s="8">
         <f>Q33*P33*100</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="S33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="T33" s="8">
         <f>S33*P33</f>
-        <v>65000</v>
+        <v>130000</v>
       </c>
       <c r="U33" s="9">
-        <f t="shared" si="2"/>
-        <v>70.652173913043484</v>
+        <f>T33/(N33*$J$5)</f>
+        <v>141.30434782608697</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>43</v>
@@ -5066,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="9">
-        <f t="shared" si="5"/>
+        <f>AA33/(N33*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -5082,7 +5068,7 @@
       </c>
       <c r="T34" s="8">
         <f>SUM(T10:T28)</f>
-        <v>294600</v>
+        <v>589200</v>
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="1" t="s">
@@ -5101,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="8">
-        <f t="shared" ref="AA34" si="11">Z34*W34</f>
+        <f t="shared" ref="AA34" si="4">Z34*W34</f>
         <v>0</v>
       </c>
       <c r="AB34" s="9">
@@ -5121,7 +5107,7 @@
   <dimension ref="A5:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5158,7 +5144,7 @@
       </c>
       <c r="C7" s="11">
         <f>VLOOKUP(A7,Balance!L:R,7,FALSE)</f>
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -5180,7 +5166,7 @@
       </c>
       <c r="C8" s="11">
         <f>VLOOKUP(A8,Balance!L:R,7,FALSE)</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D8" s="4">
         <v>1000</v>
@@ -5202,7 +5188,7 @@
       </c>
       <c r="C9" s="11">
         <f>VLOOKUP(A9,Balance!L:R,7,FALSE)</f>
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="D9" s="4">
         <v>2000</v>
@@ -5224,7 +5210,7 @@
       </c>
       <c r="C10" s="11">
         <f>VLOOKUP(A10,Balance!L:R,7,FALSE)</f>
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="D10" s="4">
         <v>3000</v>
@@ -5246,7 +5232,7 @@
       </c>
       <c r="C11" s="11">
         <f>VLOOKUP(A11,Balance!L:R,7,FALSE)</f>
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="D11" s="4">
         <v>4000</v>
@@ -5268,7 +5254,7 @@
       </c>
       <c r="C12" s="11">
         <f>VLOOKUP(A12,Balance!L:R,7,FALSE)</f>
-        <v>400000000</v>
+        <v>800000000</v>
       </c>
       <c r="D12" s="4">
         <v>5000</v>
@@ -5290,7 +5276,7 @@
       </c>
       <c r="C13" s="11">
         <f>VLOOKUP(A13,Balance!L:R,7,FALSE)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D13" s="4">
         <v>6000</v>
@@ -5312,7 +5298,7 @@
       </c>
       <c r="C14" s="11">
         <f>VLOOKUP(A14,Balance!L:R,7,FALSE)</f>
-        <v>800000</v>
+        <v>1600000</v>
       </c>
       <c r="D14" s="4">
         <v>7000</v>
@@ -5334,7 +5320,7 @@
       </c>
       <c r="C15" s="11">
         <f>VLOOKUP(A15,Balance!L:R,7,FALSE)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4">
         <v>8000</v>
@@ -5356,7 +5342,7 @@
       </c>
       <c r="C16" s="11">
         <f>VLOOKUP(A16,Balance!L:R,7,FALSE)</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="D16" s="4">
         <v>9000</v>
@@ -5378,7 +5364,7 @@
       </c>
       <c r="C17" s="11">
         <f>VLOOKUP(A17,Balance!L:R,7,FALSE)</f>
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="D17" s="4">
         <v>10000</v>
@@ -5400,7 +5386,7 @@
       </c>
       <c r="C18" s="11">
         <f>VLOOKUP(A18,Balance!L:R,7,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D18" s="4">
         <v>11000</v>
@@ -5422,7 +5408,7 @@
       </c>
       <c r="C19" s="11">
         <f>VLOOKUP(A19,Balance!L:R,7,FALSE)</f>
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="D19" s="4">
         <v>12000</v>
@@ -5444,7 +5430,7 @@
       </c>
       <c r="C20" s="11">
         <f>VLOOKUP(A20,Balance!L:R,7,FALSE)</f>
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D20" s="4">
         <v>13000</v>
@@ -5466,7 +5452,7 @@
       </c>
       <c r="C21" s="11">
         <f>VLOOKUP(A21,Balance!L:R,7,FALSE)</f>
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="D21" s="4">
         <v>14000</v>
@@ -5488,7 +5474,7 @@
       </c>
       <c r="C22" s="11">
         <f>VLOOKUP(A22,Balance!L:R,7,FALSE)</f>
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="D22" s="4">
         <v>15000</v>
@@ -5510,7 +5496,7 @@
       </c>
       <c r="C23" s="11">
         <f>VLOOKUP(A23,Balance!L:R,7,FALSE)</f>
-        <v>80000000000</v>
+        <v>160000000000</v>
       </c>
       <c r="D23" s="4">
         <v>16000</v>
@@ -5532,7 +5518,7 @@
       </c>
       <c r="C24" s="11">
         <f>VLOOKUP(A24,Balance!L:R,7,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D24" s="4">
         <v>17000</v>
@@ -5554,7 +5540,7 @@
       </c>
       <c r="C25" s="11">
         <f>VLOOKUP(A25,Balance!L:R,7,FALSE)</f>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="D25" s="4">
         <v>18000</v>
@@ -5576,7 +5562,7 @@
       </c>
       <c r="C26" s="11">
         <f>VLOOKUP(A26,Balance!L:R,7,FALSE)</f>
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="D26" s="4">
         <v>19000</v>
@@ -5598,7 +5584,7 @@
       </c>
       <c r="C27" s="11">
         <f>VLOOKUP(A27,Balance!L:R,7,FALSE)</f>
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="D27" s="4">
         <v>20000</v>
@@ -5620,7 +5606,7 @@
       </c>
       <c r="C28" s="11">
         <f>VLOOKUP(A28,Balance!L:R,7,FALSE)</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D28" s="4">
         <v>21000</v>
@@ -5642,7 +5628,7 @@
       </c>
       <c r="C29" s="11">
         <f>VLOOKUP(A29,Balance!L:R,7,FALSE)</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D29" s="4">
         <v>22000</v>
@@ -5664,7 +5650,7 @@
       </c>
       <c r="C30" s="11">
         <f>VLOOKUP(A30,Balance!L:R,7,FALSE)</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D30" s="4">
         <v>23000</v>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45A1A00-AA1E-4B75-86ED-A01610D985E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4670CF-7BD2-4AF3-8DBC-5BD095864F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
@@ -354,8 +354,8 @@
     <author>tc={02BD93A9-17D9-49B0-8F21-FFAA7C55A291}</author>
     <author>tc={8D16DC6C-9A19-4281-B6AD-BD0FF886649A}</author>
     <author>tc={723718A3-DE44-4387-A4D1-38B130E5164B}</author>
+    <author>tc={AF100BCC-709D-42BF-BE19-C7A3A31DBB45}</author>
     <author>tc={6C870E27-5E09-473C-9F9E-075569E552F6}</author>
-    <author>tc={AF100BCC-709D-42BF-BE19-C7A3A31DBB45}</author>
     <author>tc={E7D99C15-142A-403F-B339-AFF464240516}</author>
   </authors>
   <commentList>
@@ -637,15 +637,7 @@
     영혼베기 만렙기준 500%</t>
       </text>
     </comment>
-    <comment ref="V31" authorId="34" shapeId="0" xr:uid="{6C870E27-5E09-473C-9F9E-075569E552F6}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    4신수(극)4마리 합이 대략 400%</t>
-      </text>
-    </comment>
-    <comment ref="O32" authorId="35" shapeId="0" xr:uid="{AF100BCC-709D-42BF-BE19-C7A3A31DBB45}">
+    <comment ref="O32" authorId="34" shapeId="0" xr:uid="{AF100BCC-709D-42BF-BE19-C7A3A31DBB45}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -654,7 +646,15 @@
 초보자 기준 신선 1800%</t>
       </text>
     </comment>
-    <comment ref="V32" authorId="36" shapeId="0" xr:uid="{E7D99C15-142A-403F-B339-AFF464240516}">
+    <comment ref="V32" authorId="35" shapeId="0" xr:uid="{6C870E27-5E09-473C-9F9E-075569E552F6}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    4신수(극)4마리 합이 대략 400%</t>
+      </text>
+    </comment>
+    <comment ref="V33" authorId="36" shapeId="0" xr:uid="{E7D99C15-142A-403F-B339-AFF464240516}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -667,7 +667,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="173">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1241,6 +1241,19 @@
   </si>
   <si>
     <t>창생 20 귀문</t>
+  </si>
+  <si>
+    <t>guimoon20</t>
+  </si>
+  <si>
+    <t>사흑 21 귀문</t>
+  </si>
+  <si>
+    <t>창생 21 귀문</t>
+  </si>
+  <si>
+    <t>심득 조각 소탕량 증가 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1993,14 +2006,14 @@
   <threadedComment ref="O31" dT="2023-07-05T02:16:56.25" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{723718A3-DE44-4387-A4D1-38B130E5164B}">
     <text>영혼베기 만렙기준 500%</text>
   </threadedComment>
-  <threadedComment ref="V31" dT="2023-07-05T02:30:29.72" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{6C870E27-5E09-473C-9F9E-075569E552F6}">
-    <text>4신수(극)4마리 합이 대략 400%</text>
-  </threadedComment>
   <threadedComment ref="O32" dT="2023-07-05T02:57:22.34" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{AF100BCC-709D-42BF-BE19-C7A3A31DBB45}">
     <text>신선 유물 1개 수준 400%지급
 초보자 기준 신선 1800%</text>
   </threadedComment>
-  <threadedComment ref="V32" dT="2023-07-05T02:26:03.07" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{E7D99C15-142A-403F-B339-AFF464240516}">
+  <threadedComment ref="V32" dT="2023-07-05T02:30:29.72" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{6C870E27-5E09-473C-9F9E-075569E552F6}">
+    <text>4신수(극)4마리 합이 대략 400%</text>
+  </threadedComment>
+  <threadedComment ref="V33" dT="2023-07-05T02:26:03.07" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{E7D99C15-142A-403F-B339-AFF464240516}">
     <text>업적에서 얻는 경험치 피해량이 대략 200만%</text>
   </threadedComment>
 </ThreadedComments>
@@ -2008,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3007,6 +3020,53 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22">
+        <f>C21+500</f>
+        <v>19000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22">
+        <v>10000</v>
+      </c>
+      <c r="F22">
+        <f>VLOOKUP(A22,Balance!A:F,3,FALSE)</f>
+        <v>63</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP(A22,Balance!L:S,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <f>VLOOKUP(A22,Balance!L:S,8,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f>VLOOKUP(A22,Balance!A:F,6,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="L22">
+        <f>VLOOKUP(A22,Balance!L:AA,13,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3016,10 +3076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
-  <dimension ref="A5:AB34"/>
+  <dimension ref="A5:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3202,11 +3262,11 @@
         <v>1</v>
       </c>
       <c r="T10" s="8">
-        <f>S10*P10</f>
+        <f t="shared" ref="T10:T33" si="0">S10*P10</f>
         <v>200</v>
       </c>
       <c r="U10" s="9">
-        <f>T10/(N10*$J$5)</f>
+        <f t="shared" ref="U10:U33" si="1">T10/(N10*$J$5)</f>
         <v>50</v>
       </c>
       <c r="V10" s="1" t="s">
@@ -3267,7 +3327,7 @@
         <v>999</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N33" si="0">ROUNDUP((M11+1)/100,0)</f>
+        <f t="shared" ref="N11:N33" si="2">ROUNDUP((M11+1)/100,0)</f>
         <v>10</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -3287,11 +3347,11 @@
         <v>2</v>
       </c>
       <c r="T11" s="8">
-        <f>S11*P11</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="U11" s="9">
-        <f>T11/(N11*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -3304,7 +3364,7 @@
         <v>10</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" ref="Y11:Y32" si="1">X11*W11*100</f>
+        <f t="shared" ref="Y11:Y32" si="3">X11*W11*100</f>
         <v>1000</v>
       </c>
       <c r="Z11">
@@ -3345,7 +3405,7 @@
         <v>1999</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -3365,11 +3425,11 @@
         <v>2</v>
       </c>
       <c r="T12" s="8">
-        <f>S12*P12</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="U12" s="9">
-        <f>T12/(N12*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -3389,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="8">
-        <f t="shared" ref="AA12:AA28" si="2">Z12*W12</f>
+        <f t="shared" ref="AA12:AA28" si="4">Z12*W12</f>
         <v>0</v>
       </c>
       <c r="AB12" s="9">
@@ -3423,7 +3483,7 @@
         <v>2999</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -3444,11 +3504,11 @@
         <v>3</v>
       </c>
       <c r="T13" s="8">
-        <f>S13*P13</f>
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
       <c r="U13" s="9">
-        <f>T13/(N13*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -3461,14 +3521,14 @@
         <v>450</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45000</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB13" s="9">
@@ -3502,7 +3562,7 @@
         <v>3999</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -3515,19 +3575,19 @@
         <v>2.5</v>
       </c>
       <c r="R14" s="8">
-        <f>Q14*P14*100</f>
+        <f t="shared" ref="R14:R25" si="5">Q14*P14*100</f>
         <v>1000000</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:S33" si="3">S12+1</f>
+        <f t="shared" ref="S14:S33" si="6">S12+1</f>
         <v>3</v>
       </c>
       <c r="T14" s="8">
-        <f>S14*P14</f>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="U14" s="9">
-        <f>T14/(N14*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -3540,14 +3600,14 @@
         <v>0.1</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB14" s="9">
@@ -3581,7 +3641,7 @@
         <v>4999</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -3594,19 +3654,19 @@
         <v>2000</v>
       </c>
       <c r="R15" s="8">
-        <f>Q15*P15*100</f>
+        <f t="shared" si="5"/>
         <v>800000000</v>
       </c>
       <c r="S15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="T15" s="8">
-        <f>S15*P15</f>
+        <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="U15" s="9">
-        <f>T15/(N15*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -3619,14 +3679,14 @@
         <v>2000</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB15" s="9">
@@ -3660,7 +3720,7 @@
         <v>5999</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -3673,19 +3733,19 @@
         <v>1E-4</v>
       </c>
       <c r="R16" s="8">
-        <f>Q16*P16*100</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="S16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="T16" s="8">
-        <f>S16*P16</f>
+        <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="U16" s="9">
-        <f>T16/(N16*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
       <c r="V16" s="1" t="s">
@@ -3698,7 +3758,7 @@
         <v>800</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80000</v>
       </c>
       <c r="Z16">
@@ -3739,7 +3799,7 @@
         <v>6999</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -3752,19 +3812,19 @@
         <v>4</v>
       </c>
       <c r="R17" s="8">
-        <f>Q17*P17*100</f>
+        <f t="shared" si="5"/>
         <v>1600000</v>
       </c>
       <c r="S17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="T17" s="8">
-        <f>S17*P17</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="U17" s="9">
-        <f>T17/(N17*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>71.428571428571431</v>
       </c>
       <c r="V17" s="1" t="s">
@@ -3818,7 +3878,7 @@
         <v>7999</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -3831,19 +3891,19 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="R18" s="8">
-        <f>Q18*P18*100</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="S18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="T18" s="8">
-        <f>S18*P18</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="U18" s="9">
-        <f>T18/(N18*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -3856,14 +3916,14 @@
         <v>3</v>
       </c>
       <c r="Y18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB18" s="9">
@@ -3897,7 +3957,7 @@
         <v>8999</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -3910,19 +3970,19 @@
         <v>0.5</v>
       </c>
       <c r="R19" s="8">
-        <f>Q19*P19*100</f>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
       <c r="S19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="T19" s="8">
-        <f>S19*P19</f>
+        <f t="shared" si="0"/>
         <v>24000</v>
       </c>
       <c r="U19" s="9">
-        <f>T19/(N19*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -3935,14 +3995,14 @@
         <v>2.5</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB19" s="9">
@@ -3976,7 +4036,7 @@
         <v>9999</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -3989,19 +4049,19 @@
         <v>0.4</v>
       </c>
       <c r="R20" s="8">
-        <f>Q20*P20*100</f>
+        <f t="shared" si="5"/>
         <v>160000</v>
       </c>
       <c r="S20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="T20" s="8">
-        <f>S20*P20</f>
+        <f t="shared" si="0"/>
         <v>24000</v>
       </c>
       <c r="U20" s="9">
-        <f>T20/(N20*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -4014,7 +4074,7 @@
         <v>2.5</v>
       </c>
       <c r="Y20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="Z20">
@@ -4055,7 +4115,7 @@
         <v>10999</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -4068,19 +4128,19 @@
         <v>0.01</v>
       </c>
       <c r="R21" s="8">
-        <f>Q21*P21*100</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="S21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="T21" s="8">
-        <f>S21*P21</f>
+        <f t="shared" si="0"/>
         <v>28000</v>
       </c>
       <c r="U21" s="9">
-        <f>T21/(N21*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>63.636363636363633</v>
       </c>
       <c r="V21" s="1" t="s">
@@ -4093,7 +4153,7 @@
         <v>10000</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
       <c r="Z21">
@@ -4134,7 +4194,7 @@
         <v>11999</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -4147,19 +4207,19 @@
         <v>0.3</v>
       </c>
       <c r="R22" s="8">
-        <f>Q22*P22*100</f>
+        <f t="shared" si="5"/>
         <v>120000</v>
       </c>
       <c r="S22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="T22" s="8">
-        <f>S22*P22</f>
+        <f t="shared" si="0"/>
         <v>28000</v>
       </c>
       <c r="U22" s="9">
-        <f>T22/(N22*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>58.333333333333336</v>
       </c>
       <c r="V22" s="1" t="s">
@@ -4172,14 +4232,14 @@
         <v>1.25</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB22" s="9">
@@ -4213,7 +4273,7 @@
         <v>12999</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -4226,19 +4286,19 @@
         <v>0.1</v>
       </c>
       <c r="R23" s="8">
-        <f>Q23*P23*100</f>
+        <f t="shared" si="5"/>
         <v>40000</v>
       </c>
       <c r="S23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="T23" s="8">
-        <f>S23*P23</f>
+        <f t="shared" si="0"/>
         <v>32000</v>
       </c>
       <c r="U23" s="9">
-        <f>T23/(N23*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>61.53846153846154</v>
       </c>
       <c r="V23" s="1" t="s">
@@ -4292,7 +4352,7 @@
         <v>13999</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -4305,19 +4365,19 @@
         <v>0.2</v>
       </c>
       <c r="R24" s="8">
-        <f>Q24*P24*100</f>
+        <f t="shared" si="5"/>
         <v>120000</v>
       </c>
       <c r="S24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="T24" s="8">
-        <f>S24*P24</f>
+        <f t="shared" si="0"/>
         <v>48000</v>
       </c>
       <c r="U24" s="9">
-        <f>T24/(N24*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>85.714285714285708</v>
       </c>
       <c r="V24" s="1" t="s">
@@ -4330,14 +4390,14 @@
         <v>50000</v>
       </c>
       <c r="Y24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000000</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB24" s="9">
@@ -4371,7 +4431,7 @@
         <v>14999</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="O25" s="1" t="s">
@@ -4384,19 +4444,19 @@
         <v>0.06</v>
       </c>
       <c r="R25" s="8">
-        <f>Q25*P25*100</f>
+        <f t="shared" si="5"/>
         <v>36000</v>
       </c>
       <c r="S25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="T25" s="8">
-        <f>S25*P25</f>
+        <f t="shared" si="0"/>
         <v>54000</v>
       </c>
       <c r="U25" s="9">
-        <f>T25/(N25*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="V25" s="1" t="s">
@@ -4409,7 +4469,7 @@
         <v>2000</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
       <c r="Z25">
@@ -4450,7 +4510,7 @@
         <v>15999</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -4467,15 +4527,15 @@
         <v>160000000000</v>
       </c>
       <c r="S26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="T26" s="8">
-        <f>S26*P26</f>
+        <f t="shared" si="0"/>
         <v>72000</v>
       </c>
       <c r="U26" s="9">
-        <f>T26/(N26*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
       <c r="V26" s="1" t="s">
@@ -4488,7 +4548,7 @@
         <v>0.1</v>
       </c>
       <c r="Y26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="Z26">
@@ -4529,7 +4589,7 @@
         <v>16999</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="O27" s="1" t="s">
@@ -4542,19 +4602,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="R27" s="8">
-        <f>Q27*P27*100</f>
+        <f t="shared" ref="R27:R33" si="7">Q27*P27*100</f>
         <v>4000</v>
       </c>
       <c r="S27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="T27" s="8">
-        <f>S27*P27</f>
+        <f t="shared" si="0"/>
         <v>80000</v>
       </c>
       <c r="U27" s="9">
-        <f>T27/(N27*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>117.64705882352941</v>
       </c>
       <c r="V27" s="1" t="s">
@@ -4567,7 +4627,7 @@
         <v>10000</v>
       </c>
       <c r="Y27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
       <c r="Z27">
@@ -4608,7 +4668,7 @@
         <v>17999</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="O28" s="1" t="s">
@@ -4621,39 +4681,39 @@
         <v>0.03</v>
       </c>
       <c r="R28" s="8">
-        <f>Q28*P28*100</f>
+        <f t="shared" si="7"/>
         <v>30000</v>
       </c>
       <c r="S28">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="T28" s="8">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="U28" s="9">
+        <f t="shared" si="1"/>
+        <v>138.88888888888889</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28" s="7">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0.1</v>
+      </c>
+      <c r="Y28" s="8">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="T28" s="8">
-        <f>S28*P28</f>
-        <v>100000</v>
-      </c>
-      <c r="U28" s="9">
-        <f>T28/(N28*$J$5)</f>
-        <v>138.88888888888889</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W28" s="7">
-        <v>1</v>
-      </c>
-      <c r="X28">
-        <v>0.1</v>
-      </c>
-      <c r="Y28" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB28" s="9">
@@ -4687,7 +4747,7 @@
         <v>18999</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -4700,19 +4760,19 @@
         <v>0.1</v>
       </c>
       <c r="R29" s="8">
-        <f>Q29*P29*100</f>
+        <f t="shared" si="7"/>
         <v>100000</v>
       </c>
       <c r="S29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T29" s="8">
-        <f>S29*P29</f>
+        <f t="shared" si="0"/>
         <v>110000</v>
       </c>
       <c r="U29" s="9">
-        <f>T29/(N29*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>144.73684210526315</v>
       </c>
       <c r="V29" s="1" t="s">
@@ -4725,7 +4785,7 @@
         <v>0.1</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="Z29">
@@ -4766,7 +4826,7 @@
         <v>19999</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="O30" s="1" t="s">
@@ -4779,19 +4839,19 @@
         <v>10</v>
       </c>
       <c r="R30" s="8">
-        <f>Q30*P30*100</f>
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
       <c r="S30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T30" s="8">
-        <f>S30*P30</f>
+        <f t="shared" si="0"/>
         <v>110000</v>
       </c>
       <c r="U30" s="9">
-        <f>T30/(N30*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>137.5</v>
       </c>
       <c r="V30" s="1" t="s">
@@ -4804,7 +4864,7 @@
         <v>0.1</v>
       </c>
       <c r="Y30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="Z30">
@@ -4833,10 +4893,10 @@
         <v>68</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="F31">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="L31">
         <v>21</v>
@@ -4845,7 +4905,7 @@
         <v>20999</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="O31" s="1" t="s">
@@ -4858,33 +4918,33 @@
         <v>1E-3</v>
       </c>
       <c r="R31" s="8">
-        <f>Q31*P31*100</f>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="S31">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="T31" s="8">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="U31" s="9">
+        <f t="shared" si="1"/>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W31" s="7">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0.1</v>
+      </c>
+      <c r="Y31" s="8">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="T31" s="8">
-        <f>S31*P31</f>
-        <v>120000</v>
-      </c>
-      <c r="U31" s="9">
-        <f>T31/(N31*$J$5)</f>
-        <v>142.85714285714286</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W31" s="7">
-        <v>1</v>
-      </c>
-      <c r="X31">
-        <v>2</v>
-      </c>
-      <c r="Y31" s="8">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -4912,10 +4972,10 @@
         <v>69</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="L32">
         <v>22</v>
@@ -4924,7 +4984,7 @@
         <v>21999</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="O32" s="1" t="s">
@@ -4937,23 +4997,23 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="R32" s="8">
-        <f>Q32*P32*100</f>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="S32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T32" s="8">
-        <f>S32*P32</f>
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="U32" s="9">
-        <f>T32/(N32*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>136.36363636363637</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="W32" s="7">
         <v>1</v>
@@ -4962,7 +5022,7 @@
         <v>20000</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2000000</v>
       </c>
       <c r="Z32">
@@ -4991,10 +5051,10 @@
         <v>70</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="L33">
         <v>23</v>
@@ -5003,7 +5063,7 @@
         <v>22999</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="O33" s="1" t="s">
@@ -5016,23 +5076,23 @@
         <v>1E-3</v>
       </c>
       <c r="R33" s="8">
-        <f>Q33*P33*100</f>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="S33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="T33" s="8">
-        <f>S33*P33</f>
+        <f t="shared" si="0"/>
         <v>130000</v>
       </c>
       <c r="U33" s="9">
-        <f>T33/(N33*$J$5)</f>
+        <f t="shared" si="1"/>
         <v>141.30434782608697</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="W33" s="7">
         <v>1</v>
@@ -5061,10 +5121,10 @@
         <v>121</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="T34" s="8">
         <f>SUM(T10:T28)</f>
@@ -5072,7 +5132,7 @@
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W34" s="7">
         <v>1</v>
@@ -5087,12 +5147,23 @@
         <v>0</v>
       </c>
       <c r="AA34" s="8">
-        <f t="shared" ref="AA34" si="4">Z34*W34</f>
+        <f t="shared" ref="AA34" si="8">Z34*W34</f>
         <v>0</v>
       </c>
       <c r="AB34" s="9">
         <f>AA34/(N33*$J$5)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="E35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35">
+        <v>33</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5107,7 +5178,7 @@
   <dimension ref="A5:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5616,7 +5687,7 @@
       </c>
       <c r="F28" s="11">
         <f>VLOOKUP(A28,Balance!L:Y,14,FALSE)</f>
-        <v>200</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" thickBot="1">

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4670CF-7BD2-4AF3-8DBC-5BD095864F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCCF5DD-E6DE-4D23-8513-D4AD53CECF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
@@ -667,7 +667,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="176">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1254,6 +1254,15 @@
   <si>
     <t>심득 조각 소탕량 증가 (%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guimoon21</t>
+  </si>
+  <si>
+    <t>사흑 22 귀문</t>
+  </si>
+  <si>
+    <t>창생 22 귀문</t>
   </si>
 </sst>
 </file>
@@ -2021,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3067,6 +3076,53 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23">
+        <f>C22+500</f>
+        <v>19500</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23">
+        <v>10000</v>
+      </c>
+      <c r="F23">
+        <f>VLOOKUP(A23,Balance!A:F,3,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="G23">
+        <f>VLOOKUP(A23,Balance!L:S,6,FALSE)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H23">
+        <f>VLOOKUP(A23,Balance!L:S,8,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f>VLOOKUP(A23,Balance!A:F,6,FALSE)</f>
+        <v>82</v>
+      </c>
+      <c r="L23">
+        <f>VLOOKUP(A23,Balance!L:AA,13,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3078,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
   <dimension ref="A5:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4915,11 +4971,11 @@
         <v>10000</v>
       </c>
       <c r="Q31">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="S31">
         <f t="shared" si="6"/>
@@ -5677,7 +5733,7 @@
       </c>
       <c r="C28" s="11">
         <f>VLOOKUP(A28,Balance!L:R,7,FALSE)</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D28" s="4">
         <v>21000</v>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCCF5DD-E6DE-4D23-8513-D4AD53CECF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0169F5-3D39-47DE-8BA8-8864184EB787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonTable" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="179">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1263,6 +1263,15 @@
   </si>
   <si>
     <t>창생 22 귀문</t>
+  </si>
+  <si>
+    <t>guimoon22</t>
+  </si>
+  <si>
+    <t>사흑 23 귀문</t>
+  </si>
+  <si>
+    <t>창생 23 귀문</t>
   </si>
 </sst>
 </file>
@@ -2030,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3123,6 +3132,53 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24">
+        <f>C23+500</f>
+        <v>20000</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24">
+        <v>10000</v>
+      </c>
+      <c r="F24">
+        <f>VLOOKUP(A24,Balance!A:F,3,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="G24">
+        <f>VLOOKUP(A24,Balance!L:S,6,FALSE)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H24">
+        <f>VLOOKUP(A24,Balance!L:S,8,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f>VLOOKUP(A24,Balance!A:F,6,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="L24">
+        <f>VLOOKUP(A24,Balance!L:AA,13,FALSE)</f>
+        <v>20000</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3134,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
   <dimension ref="A5:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0169F5-3D39-47DE-8BA8-8864184EB787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5513469D-BAE7-4133-816F-229D2CB7B33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonTable" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="180">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1272,6 +1272,10 @@
   </si>
   <si>
     <t>창생 23 귀문</t>
+  </si>
+  <si>
+    <t>심상베기 피해 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2041,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3140,8 +3144,7 @@
         <v>176</v>
       </c>
       <c r="C24">
-        <f>C23+500</f>
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>177</v>
@@ -3151,11 +3154,11 @@
       </c>
       <c r="F24">
         <f>VLOOKUP(A24,Balance!A:F,3,FALSE)</f>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G24">
         <f>VLOOKUP(A24,Balance!L:S,6,FALSE)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H24">
         <f>VLOOKUP(A24,Balance!L:S,8,FALSE)</f>
@@ -3172,8 +3175,7 @@
         <v>57</v>
       </c>
       <c r="L24">
-        <f>VLOOKUP(A24,Balance!L:AA,13,FALSE)</f>
-        <v>20000</v>
+        <v>2</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3190,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
   <dimension ref="A5:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="N10" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5075,10 +5077,10 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="C32">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>69</v>
@@ -5100,17 +5102,17 @@
         <v>220</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="P32" s="7">
         <v>10000</v>
       </c>
       <c r="Q32">
-        <v>4.0000000000000001E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="S32">
         <f t="shared" si="6"/>
@@ -5131,11 +5133,11 @@
         <v>1</v>
       </c>
       <c r="X32">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="3"/>
-        <v>2000000</v>
+        <v>20000</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -5811,7 +5813,7 @@
       </c>
       <c r="C29" s="11">
         <f>VLOOKUP(A29,Balance!L:R,7,FALSE)</f>
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="D29" s="4">
         <v>22000</v>
@@ -5821,7 +5823,7 @@
       </c>
       <c r="F29" s="11">
         <f>VLOOKUP(A29,Balance!L:Y,14,FALSE)</f>
-        <v>2000000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5513469D-BAE7-4133-816F-229D2CB7B33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38EA3E-5B46-4EE7-BBC6-CF5CA3FDEEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonTable" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="183">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1276,6 +1276,15 @@
   <si>
     <t>심상베기 피해 (%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guimoon23</t>
+  </si>
+  <si>
+    <t>사흑 24 귀문</t>
+  </si>
+  <si>
+    <t>창생 24 귀문</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1338,6 +1347,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,7 +1386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,6 +1423,9 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1415,7 +1433,18 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2043,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3143,7 +3172,7 @@
       <c r="B24" t="s">
         <v>176</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="12">
         <v>19500</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3175,14 +3204,64 @@
         <v>57</v>
       </c>
       <c r="L24">
+        <f>VLOOKUP(A24,Balance!L:AA,13,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25">
+        <v>20500</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25">
+        <v>10000</v>
+      </c>
+      <c r="F25">
+        <f>VLOOKUP(A25,Balance!A:F,3,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP(A25,Balance!L:S,6,FALSE)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H25">
+        <f>VLOOKUP(A25,Balance!L:S,8,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f>VLOOKUP(A25,Balance!A:F,6,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <f>VLOOKUP(A25,Balance!L:AA,13,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -3192,8 +3271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
   <dimension ref="A5:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="N10" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3478,7 +3557,7 @@
         <v>10</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" ref="Y11:Y32" si="3">X11*W11*100</f>
+        <f t="shared" ref="Y11:Y33" si="3">X11*W11*100</f>
         <v>1000</v>
       </c>
       <c r="Z11">
@@ -5133,11 +5212,11 @@
         <v>1</v>
       </c>
       <c r="X32">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -5187,11 +5266,11 @@
         <v>10000</v>
       </c>
       <c r="Q33">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="S33">
         <f t="shared" si="6"/>
@@ -5212,11 +5291,11 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <v>3</v>
+        <v>30000</v>
       </c>
       <c r="Y33" s="8">
-        <f>X33*W33</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>3000000</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -5823,7 +5902,7 @@
       </c>
       <c r="F29" s="11">
         <f>VLOOKUP(A29,Balance!L:Y,14,FALSE)</f>
-        <v>20000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
@@ -5835,7 +5914,7 @@
       </c>
       <c r="C30" s="11">
         <f>VLOOKUP(A30,Balance!L:R,7,FALSE)</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D30" s="4">
         <v>23000</v>
@@ -5845,14 +5924,14 @@
       </c>
       <c r="F30" s="11">
         <f>VLOOKUP(A30,Balance!L:Y,14,FALSE)</f>
-        <v>3</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>127</v>
       </c>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38EA3E-5B46-4EE7-BBC6-CF5CA3FDEEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130B9B8-9746-4A80-B5B3-10B3E943E85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonTable" sheetId="1" r:id="rId1"/>
@@ -357,6 +357,7 @@
     <author>tc={AF100BCC-709D-42BF-BE19-C7A3A31DBB45}</author>
     <author>tc={6C870E27-5E09-473C-9F9E-075569E552F6}</author>
     <author>tc={E7D99C15-142A-403F-B339-AFF464240516}</author>
+    <author>tc={F4B9CD7D-51F3-4B70-A9C2-FB4CC184C7A0}</author>
   </authors>
   <commentList>
     <comment ref="J8" authorId="0" shapeId="0" xr:uid="{610AE6A3-A334-4026-9CFB-D29E6747B6D7}">
@@ -660,6 +661,14 @@
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     업적에서 얻는 경험치 피해량이 대략 200만%</t>
+      </text>
+    </comment>
+    <comment ref="V34" authorId="37" shapeId="0" xr:uid="{F4B9CD7D-51F3-4B70-A9C2-FB4CC184C7A0}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    소탕량 증가는 10% 지급</t>
       </text>
     </comment>
   </commentList>
@@ -667,7 +676,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="187">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,9 +806,6 @@
     <t>천구베기 피해 (%)</t>
   </si>
   <si>
-    <t>스테이지 보스 체력 감소 (%)</t>
-  </si>
-  <si>
     <t>요괴 추가 소환</t>
   </si>
   <si>
@@ -1285,6 +1291,23 @@
   </si>
   <si>
     <t>창생 24 귀문</t>
+  </si>
+  <si>
+    <t>용베기 피해(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guimoon24</t>
+  </si>
+  <si>
+    <t>사흑 25 귀문</t>
+  </si>
+  <si>
+    <t>창생 25 귀문</t>
+  </si>
+  <si>
+    <t>용베기 피해 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2067,15 +2090,18 @@
   <threadedComment ref="V33" dT="2023-07-05T02:26:03.07" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{E7D99C15-142A-403F-B339-AFF464240516}">
     <text>업적에서 얻는 경험치 피해량이 대략 200만%</text>
   </threadedComment>
+  <threadedComment ref="V34" dT="2023-07-05T02:58:02.62" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{F4B9CD7D-51F3-4B70-A9C2-FB4CC184C7A0}">
+    <text>소탕량 증가는 10% 지급</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2097,40 +2123,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2138,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2">
         <v>200</v>
@@ -2162,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2184,13 +2210,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>1000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -2208,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2230,14 +2256,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <f>C3+1000</f>
         <v>2000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>2000</v>
@@ -2255,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2277,14 +2303,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <f>C4+1000</f>
         <v>3000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <v>3000</v>
@@ -2302,7 +2328,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2324,14 +2350,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C20" si="0">C5+1000</f>
         <v>4000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>4000</v>
@@ -2349,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2371,14 +2397,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>4000</v>
@@ -2396,7 +2422,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2418,14 +2444,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8">
         <v>4000</v>
@@ -2443,7 +2469,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -2465,14 +2491,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9">
         <v>4000</v>
@@ -2490,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2512,14 +2538,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10">
         <v>4000</v>
@@ -2537,7 +2563,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2559,14 +2585,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11">
         <v>4000</v>
@@ -2584,7 +2610,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2606,14 +2632,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12">
         <v>4000</v>
@@ -2631,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -2653,14 +2679,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13">
         <v>4000</v>
@@ -2678,7 +2704,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2700,14 +2726,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14">
         <v>4000</v>
@@ -2725,7 +2751,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2747,14 +2773,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15">
         <v>4000</v>
@@ -2772,7 +2798,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2794,14 +2820,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E16">
         <v>6000</v>
@@ -2819,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2841,14 +2867,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17">
         <v>6000</v>
@@ -2866,7 +2892,7 @@
         <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2888,14 +2914,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18">
         <v>8000</v>
@@ -2913,7 +2939,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2935,14 +2961,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19">
         <v>8000</v>
@@ -2960,7 +2986,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2982,14 +3008,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E20">
         <v>10000</v>
@@ -3007,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -3029,14 +3055,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21">
         <f>C20+500</f>
         <v>18500</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E21">
         <v>10000</v>
@@ -3054,7 +3080,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -3076,14 +3102,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22">
         <f>C21+500</f>
         <v>19000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22">
         <v>10000</v>
@@ -3101,7 +3127,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3123,14 +3149,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23">
         <f>C22+500</f>
         <v>19500</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E23">
         <v>10000</v>
@@ -3148,7 +3174,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3170,13 +3196,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="12">
         <v>19500</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24">
         <v>10000</v>
@@ -3194,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -3216,13 +3242,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25">
         <v>20500</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25">
         <v>10000</v>
@@ -3240,7 +3266,7 @@
         <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -3254,6 +3280,52 @@
         <v>30000</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26">
+        <v>21000</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26">
+        <v>12000</v>
+      </c>
+      <c r="F26">
+        <f>VLOOKUP(A26,Balance!A:F,3,FALSE)</f>
+        <v>88</v>
+      </c>
+      <c r="G26">
+        <f>VLOOKUP(A26,Balance!L:S,6,FALSE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="H26">
+        <f>VLOOKUP(A26,Balance!L:S,8,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f>VLOOKUP(A26,Balance!A:F,6,FALSE)</f>
+        <v>69</v>
+      </c>
+      <c r="L26">
+        <f>VLOOKUP(A26,Balance!L:AA,13,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M26">
         <v>0</v>
       </c>
     </row>
@@ -3271,8 +3343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
   <dimension ref="A5:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3303,7 +3375,7 @@
   <sheetData>
     <row r="5" spans="1:28">
       <c r="I5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -3311,7 +3383,7 @@
     </row>
     <row r="6" spans="1:28">
       <c r="I6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <v>50</v>
@@ -3319,16 +3391,16 @@
     </row>
     <row r="7" spans="1:28">
       <c r="I7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J7">
         <f>ROUNDUP(T34/(N28*J5),0)</f>
-        <v>819</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8">
         <v>570</v>
@@ -3336,71 +3408,71 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9">
         <f>ROUNDUP((T34-(N28*J8))/(N28*J5),0)</f>
-        <v>676</v>
+        <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -3414,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
@@ -3423,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10">
         <v>250</v>
@@ -3432,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
         <f>ROUNDUP((M10+1)/100,0)</f>
@@ -3498,7 +3570,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -3507,21 +3579,21 @@
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11">
         <f>ROUNDUP((T34-(N28*J8)-(N28*J10))/(N28*J5),0)</f>
-        <v>614</v>
+        <v>11</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ref="N11:N33" si="2">ROUNDUP((M11+1)/100,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>8</v>
@@ -3545,7 +3617,7 @@
       </c>
       <c r="U11" s="9">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>6</v>
@@ -3583,7 +3655,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -3595,11 +3667,11 @@
         <v>2</v>
       </c>
       <c r="M12" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>10</v>
@@ -3623,7 +3695,7 @@
       </c>
       <c r="U12" s="9">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>47.61904761904762</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>9</v>
@@ -3661,7 +3733,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -3673,11 +3745,11 @@
         <v>3</v>
       </c>
       <c r="M13" s="1">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>12</v>
@@ -3702,7 +3774,7 @@
       </c>
       <c r="U13" s="9">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>72.58064516129032</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>11</v>
@@ -3734,13 +3806,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -3752,14 +3824,14 @@
         <v>4</v>
       </c>
       <c r="M14" s="1">
-        <v>3999</v>
+        <v>4000</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7">
         <v>4000</v>
@@ -3772,7 +3844,7 @@
         <v>1000000</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:S33" si="6">S12+1</f>
+        <f t="shared" ref="S14:S34" si="6">S12+1</f>
         <v>3</v>
       </c>
       <c r="T14" s="8">
@@ -3781,7 +3853,7 @@
       </c>
       <c r="U14" s="9">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>73.170731707317074</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>13</v>
@@ -3819,7 +3891,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -3831,11 +3903,11 @@
         <v>5</v>
       </c>
       <c r="M15" s="1">
-        <v>4999</v>
+        <v>5000</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>14</v>
@@ -3860,7 +3932,7 @@
       </c>
       <c r="U15" s="9">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>78.431372549019613</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>6</v>
@@ -3898,7 +3970,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>5</v>
@@ -3910,11 +3982,11 @@
         <v>6</v>
       </c>
       <c r="M16" s="1">
-        <v>5999</v>
+        <v>6000</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>15</v>
@@ -3939,7 +4011,7 @@
       </c>
       <c r="U16" s="9">
         <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
+        <v>65.573770491803273</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>5</v>
@@ -3977,10 +4049,10 @@
         <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17">
         <v>72</v>
@@ -3989,11 +4061,11 @@
         <v>7</v>
       </c>
       <c r="M17" s="1">
-        <v>6999</v>
+        <v>7000</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>16</v>
@@ -4018,10 +4090,10 @@
       </c>
       <c r="U17" s="9">
         <f t="shared" si="1"/>
-        <v>71.428571428571431</v>
+        <v>70.422535211267601</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W17" s="7">
         <v>1</v>
@@ -4056,7 +4128,7 @@
         <v>73</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
@@ -4068,11 +4140,11 @@
         <v>8</v>
       </c>
       <c r="M18" s="1">
-        <v>7999</v>
+        <v>8000</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>17</v>
@@ -4097,10 +4169,10 @@
       </c>
       <c r="U18" s="9">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>61.728395061728392</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W18" s="7">
         <v>1</v>
@@ -4135,7 +4207,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>20</v>
@@ -4147,11 +4219,11 @@
         <v>9</v>
       </c>
       <c r="M19" s="1">
-        <v>8999</v>
+        <v>9000</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>19</v>
@@ -4176,7 +4248,7 @@
       </c>
       <c r="U19" s="9">
         <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
+        <v>65.934065934065927</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>20</v>
@@ -4214,7 +4286,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>22</v>
@@ -4226,11 +4298,11 @@
         <v>10</v>
       </c>
       <c r="M20" s="1">
-        <v>9999</v>
+        <v>10000</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>21</v>
@@ -4255,7 +4327,7 @@
       </c>
       <c r="U20" s="9">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>59.405940594059409</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>22</v>
@@ -4293,7 +4365,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
@@ -4305,11 +4377,11 @@
         <v>11</v>
       </c>
       <c r="M21" s="1">
-        <v>10999</v>
+        <v>11000</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>33</v>
@@ -4334,7 +4406,7 @@
       </c>
       <c r="U21" s="9">
         <f t="shared" si="1"/>
-        <v>63.636363636363633</v>
+        <v>63.063063063063062</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>6</v>
@@ -4372,7 +4444,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>24</v>
@@ -4384,11 +4456,11 @@
         <v>12</v>
       </c>
       <c r="M22" s="1">
-        <v>11999</v>
+        <v>12000</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>23</v>
@@ -4413,7 +4485,7 @@
       </c>
       <c r="U22" s="9">
         <f t="shared" si="1"/>
-        <v>58.333333333333336</v>
+        <v>57.851239669421489</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>24</v>
@@ -4451,10 +4523,10 @@
         <v>42</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23">
         <v>72</v>
@@ -4463,11 +4535,11 @@
         <v>13</v>
       </c>
       <c r="M23" s="1">
-        <v>12999</v>
+        <v>13000</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>25</v>
@@ -4492,10 +4564,10 @@
       </c>
       <c r="U23" s="9">
         <f t="shared" si="1"/>
-        <v>61.53846153846154</v>
+        <v>61.068702290076338</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W23" s="7">
         <v>1</v>
@@ -4530,7 +4602,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
@@ -4542,11 +4614,11 @@
         <v>14</v>
       </c>
       <c r="M24" s="1">
-        <v>13999</v>
+        <v>14000</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>27</v>
@@ -4571,7 +4643,7 @@
       </c>
       <c r="U24" s="9">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>85.106382978723403</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>6</v>
@@ -4609,7 +4681,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>5</v>
@@ -4621,14 +4693,14 @@
         <v>15</v>
       </c>
       <c r="M25" s="1">
-        <v>14999</v>
+        <v>15000</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7">
         <v>6000</v>
@@ -4650,7 +4722,7 @@
       </c>
       <c r="U25" s="9">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>89.403973509933778</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>5</v>
@@ -4688,7 +4760,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>32</v>
@@ -4700,11 +4772,11 @@
         <v>16</v>
       </c>
       <c r="M26" s="1">
-        <v>15999</v>
+        <v>16000</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>31</v>
@@ -4729,7 +4801,7 @@
       </c>
       <c r="U26" s="9">
         <f t="shared" si="1"/>
-        <v>112.5</v>
+        <v>111.80124223602485</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>32</v>
@@ -4767,7 +4839,7 @@
         <v>46</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>5</v>
@@ -4779,11 +4851,11 @@
         <v>17</v>
       </c>
       <c r="M27" s="1">
-        <v>16999</v>
+        <v>17000</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>26</v>
@@ -4808,7 +4880,7 @@
       </c>
       <c r="U27" s="9">
         <f t="shared" si="1"/>
-        <v>117.64705882352941</v>
+        <v>116.95906432748538</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>5</v>
@@ -4846,7 +4918,7 @@
         <v>50</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>34</v>
@@ -4858,14 +4930,14 @@
         <v>18</v>
       </c>
       <c r="M28" s="1">
-        <v>17999</v>
+        <v>18000</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P28" s="7">
         <v>10000</v>
@@ -4887,7 +4959,7 @@
       </c>
       <c r="U28" s="9">
         <f t="shared" si="1"/>
-        <v>138.88888888888889</v>
+        <v>138.12154696132598</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>34</v>
@@ -4925,7 +4997,7 @@
         <v>53</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>36</v>
@@ -4937,11 +5009,11 @@
         <v>19</v>
       </c>
       <c r="M29" s="1">
-        <v>18999</v>
+        <v>18500</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>35</v>
@@ -4966,7 +5038,7 @@
       </c>
       <c r="U29" s="9">
         <f t="shared" si="1"/>
-        <v>144.73684210526315</v>
+        <v>147.84946236559139</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>36</v>
@@ -5004,7 +5076,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>38</v>
@@ -5016,11 +5088,11 @@
         <v>20</v>
       </c>
       <c r="M30" s="1">
-        <v>19999</v>
+        <v>19000</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>37</v>
@@ -5045,7 +5117,7 @@
       </c>
       <c r="U30" s="9">
         <f t="shared" si="1"/>
-        <v>137.5</v>
+        <v>143.97905759162305</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>38</v>
@@ -5083,10 +5155,10 @@
         <v>58</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F31">
         <v>82</v>
@@ -5095,11 +5167,11 @@
         <v>21</v>
       </c>
       <c r="M31" s="1">
-        <v>20999</v>
+        <v>19500</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>40</v>
@@ -5124,10 +5196,10 @@
       </c>
       <c r="U31" s="9">
         <f t="shared" si="1"/>
-        <v>142.85714285714286</v>
+        <v>153.0612244897959</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W31" s="7">
         <v>1</v>
@@ -5156,13 +5228,13 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C32">
         <v>83</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>39</v>
@@ -5174,14 +5246,14 @@
         <v>22</v>
       </c>
       <c r="M32" s="1">
-        <v>21999</v>
+        <v>19500</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P32" s="7">
         <v>10000</v>
@@ -5203,7 +5275,7 @@
       </c>
       <c r="U32" s="9">
         <f t="shared" si="1"/>
-        <v>136.36363636363637</v>
+        <v>153.0612244897959</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>39</v>
@@ -5241,7 +5313,7 @@
         <v>61</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>5</v>
@@ -5253,11 +5325,11 @@
         <v>23</v>
       </c>
       <c r="M33" s="1">
-        <v>22999</v>
+        <v>20500</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="2"/>
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>41</v>
@@ -5282,7 +5354,7 @@
       </c>
       <c r="U33" s="9">
         <f t="shared" si="1"/>
-        <v>141.30434782608697</v>
+        <v>157.76699029126215</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>5</v>
@@ -5310,22 +5382,61 @@
       </c>
     </row>
     <row r="34" spans="1:28">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34">
+        <v>88</v>
+      </c>
       <c r="D34" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F34">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="L34">
+        <v>24</v>
+      </c>
+      <c r="M34" s="1">
+        <v>21000</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" ref="N34" si="8">ROUNDUP((M34+1)/100,0)</f>
+        <v>211</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P34" s="7">
+        <v>12000</v>
+      </c>
+      <c r="Q34">
+        <v>0.05</v>
+      </c>
+      <c r="R34" s="8">
+        <f t="shared" ref="R34" si="9">Q34*P34*100</f>
+        <v>60000</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="T34" s="8">
-        <f>SUM(T10:T28)</f>
-        <v>589200</v>
-      </c>
-      <c r="U34" s="8"/>
+        <f t="shared" ref="T34" si="10">S34*P34</f>
+        <v>156000</v>
+      </c>
+      <c r="U34" s="9">
+        <f t="shared" ref="U34" si="11">T34/(N34*$J$5)</f>
+        <v>184.83412322274881</v>
+      </c>
       <c r="V34" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="W34" s="7">
         <v>1</v>
@@ -5334,13 +5445,14 @@
         <v>0.1</v>
       </c>
       <c r="Y34" s="8">
-        <v>0.1</v>
+        <f t="shared" ref="Y34" si="12">X34*W34*100</f>
+        <v>10</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34" s="8">
-        <f t="shared" ref="AA34" si="8">Z34*W34</f>
+        <f t="shared" ref="AA34" si="13">Z34*W34</f>
         <v>0</v>
       </c>
       <c r="AB34" s="9">
@@ -5349,15 +5461,8 @@
       </c>
     </row>
     <row r="35" spans="1:28">
-      <c r="E35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35">
-        <v>33</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="V35" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5387,7 +5492,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -5396,7 +5501,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
@@ -5492,7 +5597,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="11">
         <f>VLOOKUP(A11,Balance!L:R,7,FALSE)</f>
@@ -5568,7 +5673,7 @@
         <v>7000</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="11">
         <f>VLOOKUP(A14,Balance!L:Y,14,FALSE)</f>
@@ -5700,7 +5805,7 @@
         <v>13000</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="11">
         <f>VLOOKUP(A20,Balance!L:Y,14,FALSE)</f>
@@ -5920,7 +6025,7 @@
         <v>23000</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="11">
         <f>VLOOKUP(A30,Balance!L:Y,14,FALSE)</f>
@@ -5929,11 +6034,11 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="13"/>
       <c r="E35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130B9B8-9746-4A80-B5B3-10B3E943E85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C899A-067E-422E-913F-BD81EA6FF4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonTable" sheetId="1" r:id="rId1"/>
@@ -358,6 +358,7 @@
     <author>tc={6C870E27-5E09-473C-9F9E-075569E552F6}</author>
     <author>tc={E7D99C15-142A-403F-B339-AFF464240516}</author>
     <author>tc={F4B9CD7D-51F3-4B70-A9C2-FB4CC184C7A0}</author>
+    <author>tc={11F5CD03-3691-461A-A5D3-9F83C31923EE}</author>
   </authors>
   <commentList>
     <comment ref="J8" authorId="0" shapeId="0" xr:uid="{610AE6A3-A334-4026-9CFB-D29E6747B6D7}">
@@ -664,6 +665,14 @@
       </text>
     </comment>
     <comment ref="V34" authorId="37" shapeId="0" xr:uid="{F4B9CD7D-51F3-4B70-A9C2-FB4CC184C7A0}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    소탕량 증가는 10% 지급</t>
+      </text>
+    </comment>
+    <comment ref="V35" authorId="38" shapeId="0" xr:uid="{11F5CD03-3691-461A-A5D3-9F83C31923EE}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -676,7 +685,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="192">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1307,6 +1316,22 @@
   </si>
   <si>
     <t>용베기 피해 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guimoon25</t>
+  </si>
+  <si>
+    <t>사흑 26 귀문</t>
+  </si>
+  <si>
+    <t>창생 26 귀문</t>
+  </si>
+  <si>
+    <t>231-2</t>
+  </si>
+  <si>
+    <t>해신베기 피해 (%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1481,6 +1506,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>810004</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5718F8BB-D9F1-3983-AA86-60F30A93DAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="3971925"/>
+          <a:ext cx="2715004" cy="1695687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2093,15 +2167,18 @@
   <threadedComment ref="V34" dT="2023-07-05T02:58:02.62" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{F4B9CD7D-51F3-4B70-A9C2-FB4CC184C7A0}">
     <text>소탕량 증가는 10% 지급</text>
   </threadedComment>
+  <threadedComment ref="V35" dT="2023-07-05T02:58:10.11" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{11F5CD03-3691-461A-A5D3-9F83C31923EE}">
+    <text>소탕량 증가는 10% 지급</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3329,6 +3406,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27">
+        <v>21500</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27">
+        <v>12000</v>
+      </c>
+      <c r="F27">
+        <f>VLOOKUP(A27,Balance!A:F,3,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="G27">
+        <f>VLOOKUP(A27,Balance!L:S,6,FALSE)</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="H27">
+        <f>VLOOKUP(A27,Balance!L:S,8,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f>VLOOKUP(A27,Balance!A:F,6,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="L27">
+        <f>VLOOKUP(A27,Balance!L:AA,13,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -3343,8 +3466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
   <dimension ref="A5:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3844,7 +3967,7 @@
         <v>1000000</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:S34" si="6">S12+1</f>
+        <f t="shared" ref="S14:S35" si="6">S12+1</f>
         <v>3</v>
       </c>
       <c r="T14" s="8">
@@ -5407,7 +5530,7 @@
         <v>21000</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" ref="N34" si="8">ROUNDUP((M34+1)/100,0)</f>
+        <f t="shared" ref="N34:N35" si="8">ROUNDUP((M34+1)/100,0)</f>
         <v>211</v>
       </c>
       <c r="O34" s="1" t="s">
@@ -5420,7 +5543,7 @@
         <v>0.05</v>
       </c>
       <c r="R34" s="8">
-        <f t="shared" ref="R34" si="9">Q34*P34*100</f>
+        <f t="shared" ref="R34:R35" si="9">Q34*P34*100</f>
         <v>60000</v>
       </c>
       <c r="S34">
@@ -5428,11 +5551,11 @@
         <v>13</v>
       </c>
       <c r="T34" s="8">
-        <f t="shared" ref="T34" si="10">S34*P34</f>
+        <f t="shared" ref="T34:T35" si="10">S34*P34</f>
         <v>156000</v>
       </c>
       <c r="U34" s="9">
-        <f t="shared" ref="U34" si="11">T34/(N34*$J$5)</f>
+        <f t="shared" ref="U34:U35" si="11">T34/(N34*$J$5)</f>
         <v>184.83412322274881</v>
       </c>
       <c r="V34" s="1" t="s">
@@ -5445,14 +5568,14 @@
         <v>0.1</v>
       </c>
       <c r="Y34" s="8">
-        <f t="shared" ref="Y34" si="12">X34*W34*100</f>
+        <f t="shared" ref="Y34:Y35" si="12">X34*W34*100</f>
         <v>10</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34" s="8">
-        <f t="shared" ref="AA34" si="13">Z34*W34</f>
+        <f t="shared" ref="AA34:AA35" si="13">Z34*W34</f>
         <v>0</v>
       </c>
       <c r="AB34" s="9">
@@ -5461,13 +5584,89 @@
       </c>
     </row>
     <row r="35" spans="1:28">
-      <c r="E35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35">
+        <v>101</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35">
+        <v>70</v>
+      </c>
+      <c r="L35">
+        <v>25</v>
+      </c>
+      <c r="M35" s="1">
+        <v>21500</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="8"/>
+        <v>216</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P35" s="7">
+        <v>12000</v>
+      </c>
+      <c r="Q35">
+        <v>1.5E-3</v>
+      </c>
+      <c r="R35" s="8">
+        <f t="shared" si="9"/>
+        <v>1800</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="T35" s="8">
+        <f t="shared" si="10"/>
+        <v>168000</v>
+      </c>
+      <c r="U35" s="9">
+        <f t="shared" si="11"/>
+        <v>194.44444444444446</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35" s="7">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0.1</v>
+      </c>
+      <c r="Y35" s="8">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="9">
+        <f>AA35/(N34*$J$5)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5475,7 +5674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D4E81F-E86D-4E4C-9660-5F25DDD719C0}">
   <dimension ref="A5:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966C899A-067E-422E-913F-BD81EA6FF4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D72A4-CA76-430A-B413-0935A8826625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonTable" sheetId="1" r:id="rId1"/>
@@ -359,6 +359,7 @@
     <author>tc={E7D99C15-142A-403F-B339-AFF464240516}</author>
     <author>tc={F4B9CD7D-51F3-4B70-A9C2-FB4CC184C7A0}</author>
     <author>tc={11F5CD03-3691-461A-A5D3-9F83C31923EE}</author>
+    <author>tc={97CF0818-D8A4-44B4-86D1-C904339C6FDC}</author>
   </authors>
   <commentList>
     <comment ref="J8" authorId="0" shapeId="0" xr:uid="{610AE6A3-A334-4026-9CFB-D29E6747B6D7}">
@@ -673,6 +674,14 @@
       </text>
     </comment>
     <comment ref="V35" authorId="38" shapeId="0" xr:uid="{11F5CD03-3691-461A-A5D3-9F83C31923EE}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    소탕량 증가는 10% 지급</t>
+      </text>
+    </comment>
+    <comment ref="V36" authorId="39" shapeId="0" xr:uid="{97CF0818-D8A4-44B4-86D1-C904339C6FDC}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -685,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="173">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,102 +839,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>141-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>151-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>171-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>181-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>191-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>211-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>221-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>231-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abilType1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1103,10 +1016,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>241-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>총 능력치2 (보기 편하게)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1328,10 +1237,32 @@
     <t>창생 26 귀문</t>
   </si>
   <si>
-    <t>231-2</t>
-  </si>
-  <si>
     <t>해신베기 피해 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guimoon26</t>
+  </si>
+  <si>
+    <t>사흑 27 귀문</t>
+  </si>
+  <si>
+    <t>창생 27 귀문</t>
+  </si>
+  <si>
+    <t>22500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신력 피해 (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요석 획득량 증가 (%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2170,15 +2101,18 @@
   <threadedComment ref="V35" dT="2023-07-05T02:58:10.11" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{11F5CD03-3691-461A-A5D3-9F83C31923EE}">
     <text>소탕량 증가는 10% 지급</text>
   </threadedComment>
+  <threadedComment ref="V36" dT="2023-07-05T02:58:14.63" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{97CF0818-D8A4-44B4-86D1-C904339C6FDC}">
+    <text>소탕량 증가는 10% 지급</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2200,40 +2134,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>97</v>
-      </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2241,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E2">
         <v>200</v>
@@ -2265,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2287,13 +2221,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>1000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -2311,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2333,14 +2267,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <f>C3+1000</f>
         <v>2000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>2000</v>
@@ -2358,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2380,14 +2314,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C5">
         <f>C4+1000</f>
         <v>3000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>3000</v>
@@ -2405,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2427,14 +2361,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C20" si="0">C5+1000</f>
         <v>4000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>4000</v>
@@ -2452,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2474,14 +2408,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E7">
         <v>4000</v>
@@ -2499,7 +2433,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2521,14 +2455,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>4000</v>
@@ -2546,7 +2480,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -2568,14 +2502,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E9">
         <v>4000</v>
@@ -2593,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2615,14 +2549,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E10">
         <v>4000</v>
@@ -2640,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2662,14 +2596,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>4000</v>
@@ -2687,7 +2621,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2709,14 +2643,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>4000</v>
@@ -2734,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -2756,14 +2690,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>4000</v>
@@ -2781,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2803,14 +2737,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <v>4000</v>
@@ -2828,7 +2762,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2850,14 +2784,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E15">
         <v>4000</v>
@@ -2875,7 +2809,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2897,14 +2831,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E16">
         <v>6000</v>
@@ -2922,7 +2856,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2944,14 +2878,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E17">
         <v>6000</v>
@@ -2969,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2991,14 +2925,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E18">
         <v>8000</v>
@@ -3016,7 +2950,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -3038,14 +2972,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E19">
         <v>8000</v>
@@ -3063,7 +2997,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -3085,14 +3019,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E20">
         <v>10000</v>
@@ -3110,7 +3044,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -3132,14 +3066,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <f>C20+500</f>
         <v>18500</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E21">
         <v>10000</v>
@@ -3157,7 +3091,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -3179,14 +3113,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C22">
         <f>C21+500</f>
         <v>19000</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E22">
         <v>10000</v>
@@ -3204,7 +3138,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3226,14 +3160,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C23">
         <f>C22+500</f>
         <v>19500</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="E23">
         <v>10000</v>
@@ -3251,7 +3185,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3273,13 +3207,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C24" s="12">
         <v>19500</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="E24">
         <v>10000</v>
@@ -3297,7 +3231,7 @@
         <v>12</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -3319,13 +3253,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C25">
         <v>20500</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="E25">
         <v>10000</v>
@@ -3343,7 +3277,7 @@
         <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -3365,13 +3299,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C26">
         <v>21000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="E26">
         <v>12000</v>
@@ -3389,7 +3323,7 @@
         <v>13</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -3411,13 +3345,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C27">
         <v>21500</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E27">
         <v>12000</v>
@@ -3435,7 +3369,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3449,6 +3383,52 @@
         <v>0.1</v>
       </c>
       <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28">
+        <v>22000</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28">
+        <v>12000</v>
+      </c>
+      <c r="F28">
+        <f>VLOOKUP(A28,Balance!A:F,3,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="G28">
+        <f>VLOOKUP(A28,Balance!L:S,6,FALSE)</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H28">
+        <f>VLOOKUP(A28,Balance!L:S,8,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f>VLOOKUP(A28,Balance!A:F,6,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="L28">
+        <f>VLOOKUP(A28,Balance!L:AA,13,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M28">
         <v>0</v>
       </c>
     </row>
@@ -3464,10 +3444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
-  <dimension ref="A5:AB35"/>
+  <dimension ref="A5:AB38"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3498,7 +3478,7 @@
   <sheetData>
     <row r="5" spans="1:28">
       <c r="I5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -3506,7 +3486,7 @@
     </row>
     <row r="6" spans="1:28">
       <c r="I6" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J6">
         <v>50</v>
@@ -3514,7 +3494,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="I7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J7">
         <f>ROUNDUP(T34/(N28*J5),0)</f>
@@ -3523,7 +3503,7 @@
     </row>
     <row r="8" spans="1:28">
       <c r="I8" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="J8">
         <v>570</v>
@@ -3531,7 +3511,7 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>43</v>
@@ -3543,59 +3523,59 @@
         <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="J9">
         <f>ROUNDUP((T34-(N28*J8))/(N28*J5),0)</f>
         <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -3608,8 +3588,8 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
+      <c r="D10" s="5">
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
@@ -3618,7 +3598,7 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="J10">
         <v>250</v>
@@ -3692,8 +3672,8 @@
       <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>47</v>
+      <c r="D11" s="5">
+        <v>1000</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -3702,7 +3682,7 @@
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="J11">
         <f>ROUNDUP((T34-(N28*J8)-(N28*J10))/(N28*J5),0)</f>
@@ -3777,8 +3757,8 @@
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>48</v>
+      <c r="D12" s="5">
+        <v>2000</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -3855,8 +3835,8 @@
       <c r="C13">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>49</v>
+      <c r="D13" s="5">
+        <v>3000</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -3929,13 +3909,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
+      <c r="D14" s="5">
+        <v>4000</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -3954,7 +3934,7 @@
         <v>41</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7">
         <v>4000</v>
@@ -3967,7 +3947,7 @@
         <v>1000000</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:S35" si="6">S12+1</f>
+        <f t="shared" ref="S14:S36" si="6">S12+1</f>
         <v>3</v>
       </c>
       <c r="T14" s="8">
@@ -4013,8 +3993,8 @@
       <c r="C15">
         <v>25</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>51</v>
+      <c r="D15" s="5">
+        <v>5000</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -4092,8 +4072,8 @@
       <c r="C16">
         <v>55</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>52</v>
+      <c r="D16" s="5">
+        <v>6000</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>5</v>
@@ -4171,8 +4151,8 @@
       <c r="C17">
         <v>27</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>53</v>
+      <c r="D17" s="5">
+        <v>7000</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>42</v>
@@ -4250,8 +4230,8 @@
       <c r="C18">
         <v>73</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>54</v>
+      <c r="D18" s="5">
+        <v>8000</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
@@ -4295,7 +4275,7 @@
         <v>61.728395061728392</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="W18" s="7">
         <v>1</v>
@@ -4329,8 +4309,8 @@
       <c r="C19">
         <v>35</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>55</v>
+      <c r="D19" s="5">
+        <v>9000</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>20</v>
@@ -4408,8 +4388,8 @@
       <c r="C20">
         <v>36</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>56</v>
+      <c r="D20" s="5">
+        <v>10000</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>22</v>
@@ -4487,8 +4467,8 @@
       <c r="C21">
         <v>49</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
+      <c r="D21" s="5">
+        <v>11000</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
@@ -4566,8 +4546,8 @@
       <c r="C22">
         <v>39</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>58</v>
+      <c r="D22" s="5">
+        <v>12000</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>24</v>
@@ -4645,8 +4625,8 @@
       <c r="C23">
         <v>42</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>59</v>
+      <c r="D23" s="5">
+        <v>13000</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>42</v>
@@ -4724,8 +4704,8 @@
       <c r="C24">
         <v>43</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>60</v>
+      <c r="D24" s="5">
+        <v>14000</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
@@ -4803,8 +4783,8 @@
       <c r="C25">
         <v>47</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>61</v>
+      <c r="D25" s="5">
+        <v>15000</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>5</v>
@@ -4823,7 +4803,7 @@
         <v>151</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="P25" s="7">
         <v>6000</v>
@@ -4882,8 +4862,8 @@
       <c r="C26">
         <v>62</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>62</v>
+      <c r="D26" s="5">
+        <v>16000</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>32</v>
@@ -4961,8 +4941,8 @@
       <c r="C27">
         <v>46</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>63</v>
+      <c r="D27" s="5">
+        <v>17000</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>5</v>
@@ -5040,8 +5020,8 @@
       <c r="C28">
         <v>50</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>64</v>
+      <c r="D28" s="5">
+        <v>18000</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>34</v>
@@ -5060,7 +5040,7 @@
         <v>181</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7">
         <v>10000</v>
@@ -5119,8 +5099,8 @@
       <c r="C29">
         <v>53</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>65</v>
+      <c r="D29" s="5">
+        <v>18500</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>36</v>
@@ -5198,8 +5178,8 @@
       <c r="C30">
         <v>63</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>66</v>
+      <c r="D30" s="5">
+        <v>19000</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>38</v>
@@ -5277,11 +5257,11 @@
       <c r="C31">
         <v>58</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>67</v>
+      <c r="D31" s="5">
+        <v>19500</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F31">
         <v>82</v>
@@ -5322,7 +5302,7 @@
         <v>153.0612244897959</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="W31" s="7">
         <v>1</v>
@@ -5351,13 +5331,13 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C32">
         <v>83</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>68</v>
+      <c r="D32" s="5">
+        <v>19500</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>39</v>
@@ -5376,7 +5356,7 @@
         <v>196</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="P32" s="7">
         <v>10000</v>
@@ -5435,8 +5415,8 @@
       <c r="C33">
         <v>61</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>69</v>
+      <c r="D33" s="5">
+        <v>20500</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>5</v>
@@ -5509,13 +5489,13 @@
         <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C34">
         <v>88</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>120</v>
+      <c r="D34" s="5">
+        <v>21000</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>34</v>
@@ -5534,7 +5514,7 @@
         <v>211</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="P34" s="7">
         <v>12000</v>
@@ -5588,13 +5568,13 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C35">
         <v>101</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>190</v>
+      <c r="D35" s="5">
+        <v>21500</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>36</v>
@@ -5613,7 +5593,7 @@
         <v>216</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="P35" s="7">
         <v>12000</v>
@@ -5660,6 +5640,109 @@
       <c r="AB35" s="9">
         <f>AA35/(N34*$J$5)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36">
+        <v>105</v>
+      </c>
+      <c r="D36" s="5">
+        <v>22000</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <v>71</v>
+      </c>
+      <c r="L36">
+        <v>26</v>
+      </c>
+      <c r="M36" s="1">
+        <v>22000</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" ref="N36" si="14">ROUNDUP((M36+1)/100,0)</f>
+        <v>221</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P36" s="7">
+        <v>12000</v>
+      </c>
+      <c r="Q36">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="R36" s="8">
+        <f t="shared" ref="R36" si="15">Q36*P36*100</f>
+        <v>359.99999999999994</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="T36" s="8">
+        <f t="shared" ref="T36" si="16">S36*P36</f>
+        <v>168000</v>
+      </c>
+      <c r="U36" s="9">
+        <f t="shared" ref="U36" si="17">T36/(N36*$J$5)</f>
+        <v>190.04524886877829</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W36" s="7">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>0.1</v>
+      </c>
+      <c r="Y36" s="8">
+        <f t="shared" ref="Y36" si="18">X36*W36*100</f>
+        <v>10</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="8">
+        <f t="shared" ref="AA36" si="19">Z36*W36</f>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="9">
+        <f>AA36/(N35*$J$5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="B37" s="1"/>
+      <c r="D37" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="B38" s="1"/>
+      <c r="D38" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5691,7 +5774,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -5700,7 +5783,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
@@ -5796,7 +5879,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C11" s="11">
         <f>VLOOKUP(A11,Balance!L:R,7,FALSE)</f>
@@ -6233,11 +6316,11 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="13" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C35" s="13"/>
       <c r="E35" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D72A4-CA76-430A-B413-0935A8826625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8DF717-E87A-4EF4-B4CA-6F652BFB2BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonTable" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="177">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1264,6 +1264,19 @@
   <si>
     <t>요석 획득량 증가 (%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협동 베기(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guimoon27</t>
+  </si>
+  <si>
+    <t>사흑 28 귀문</t>
+  </si>
+  <si>
+    <t>창생 28 귀문</t>
   </si>
 </sst>
 </file>
@@ -1585,9 +1598,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1625,7 +1638,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1731,7 +1744,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1873,7 +1886,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2109,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3432,6 +3445,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29">
+        <v>22500</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29">
+        <v>12000</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP(A29,Balance!A:F,3,FALSE)</f>
+        <v>108</v>
+      </c>
+      <c r="G29">
+        <f>VLOOKUP(A29,Balance!L:S,6,FALSE)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H29">
+        <f>VLOOKUP(A29,Balance!L:S,8,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f>VLOOKUP(A29,Balance!A:F,6,FALSE)</f>
+        <v>82</v>
+      </c>
+      <c r="L29">
+        <f>VLOOKUP(A29,Balance!L:AA,13,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -3446,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
   <dimension ref="A5:AB38"/>
   <sheetViews>
-    <sheetView topLeftCell="G11" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3947,7 +4006,7 @@
         <v>1000000</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:S36" si="6">S12+1</f>
+        <f t="shared" ref="S14:S38" si="6">S12+1</f>
         <v>3</v>
       </c>
       <c r="T14" s="8">
@@ -5722,7 +5781,15 @@
       </c>
     </row>
     <row r="37" spans="1:28">
-      <c r="B37" s="1"/>
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37">
+        <v>108</v>
+      </c>
       <c r="D37" s="5" t="s">
         <v>169</v>
       </c>
@@ -5732,9 +5799,76 @@
       <c r="F37">
         <v>82</v>
       </c>
+      <c r="L37">
+        <v>27</v>
+      </c>
+      <c r="M37" s="1">
+        <v>22500</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" ref="N37" si="20">ROUNDUP((M37+1)/100,0)</f>
+        <v>226</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P37" s="7">
+        <v>12000</v>
+      </c>
+      <c r="Q37">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R37" s="8">
+        <f t="shared" ref="R37" si="21">Q37*P37*100</f>
+        <v>240</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="T37" s="8">
+        <f t="shared" ref="T37" si="22">S37*P37</f>
+        <v>180000</v>
+      </c>
+      <c r="U37" s="9">
+        <f t="shared" ref="U37" si="23">T37/(N37*$J$5)</f>
+        <v>199.11504424778761</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W37" s="7">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0.1</v>
+      </c>
+      <c r="Y37" s="8">
+        <f t="shared" ref="Y37" si="24">X37*W37*100</f>
+        <v>10</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="8">
+        <f t="shared" ref="AA37" si="25">Z37*W37</f>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="9">
+        <f>AA37/(N36*$J$5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:28">
-      <c r="B38" s="1"/>
+      <c r="A38">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38">
+        <v>108</v>
+      </c>
       <c r="D38" s="5" t="s">
         <v>171</v>
       </c>
@@ -5743,6 +5877,65 @@
       </c>
       <c r="F38">
         <v>98</v>
+      </c>
+      <c r="L38">
+        <v>28</v>
+      </c>
+      <c r="M38" s="1">
+        <v>23000</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" ref="N38" si="26">ROUNDUP((M38+1)/100,0)</f>
+        <v>231</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P38" s="7">
+        <v>12000</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" s="8">
+        <f t="shared" ref="R38" si="27">Q38*P38*100</f>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="T38" s="8">
+        <f t="shared" ref="T38" si="28">S38*P38</f>
+        <v>180000</v>
+      </c>
+      <c r="U38" s="9">
+        <f t="shared" ref="U38" si="29">T38/(N38*$J$5)</f>
+        <v>194.80519480519482</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W38" s="7">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0.1</v>
+      </c>
+      <c r="Y38" s="8">
+        <f t="shared" ref="Y38" si="30">X38*W38*100</f>
+        <v>10</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="8">
+        <f t="shared" ref="AA38" si="31">Z38*W38</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="9">
+        <f>AA38/(N37*$J$5)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8DF717-E87A-4EF4-B4CA-6F652BFB2BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDFFA9E-BD15-494B-9301-CE0376B31526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="181">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1277,6 +1277,19 @@
   </si>
   <si>
     <t>창생 28 귀문</t>
+  </si>
+  <si>
+    <t>극락 베기(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guimoon28</t>
+  </si>
+  <si>
+    <t>사흑 29 귀문</t>
+  </si>
+  <si>
+    <t>창생 29 귀문</t>
   </si>
 </sst>
 </file>
@@ -1487,6 +1500,50 @@
         <a:xfrm>
           <a:off x="8972550" y="3971925"/>
           <a:ext cx="2715004" cy="1695687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>124083</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45DBA36-4D26-E9C6-5127-108CA749B315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="6257925"/>
+          <a:ext cx="1848108" cy="2010056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2122,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3488,6 +3545,52 @@
         <v>0.1</v>
       </c>
       <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30">
+        <v>23000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30">
+        <v>12000</v>
+      </c>
+      <c r="F30">
+        <f>VLOOKUP(A30,Balance!A:F,3,FALSE)</f>
+        <v>110</v>
+      </c>
+      <c r="G30">
+        <f>VLOOKUP(A30,Balance!L:S,6,FALSE)</f>
+        <v>3.5E-4</v>
+      </c>
+      <c r="H30">
+        <f>VLOOKUP(A30,Balance!L:S,8,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f>VLOOKUP(A30,Balance!A:F,6,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="L30">
+        <f>VLOOKUP(A30,Balance!L:AA,13,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M30">
         <v>0</v>
       </c>
     </row>
@@ -5864,10 +5967,10 @@
         <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C38">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>171</v>
@@ -5889,17 +5992,17 @@
         <v>231</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P38" s="7">
         <v>12000</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>3.5E-4</v>
       </c>
       <c r="R38" s="8">
         <f t="shared" ref="R38" si="27">Q38*P38*100</f>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="S38">
         <f t="shared" si="6"/>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDFFA9E-BD15-494B-9301-CE0376B31526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96337B16-8A8D-436E-8F5B-61D65A3DAB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonTable" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="187">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1290,6 +1290,26 @@
   </si>
   <si>
     <t>창생 29 귀문</t>
+  </si>
+  <si>
+    <t>guimoon29</t>
+  </si>
+  <si>
+    <t>사흑 30 귀문</t>
+  </si>
+  <si>
+    <t>창생 30 귀문</t>
+  </si>
+  <si>
+    <t>23500</t>
+  </si>
+  <si>
+    <t>극혈 베기(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 조각 소탕량 증가(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2179,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2308,7 +2328,7 @@
       </c>
       <c r="G3">
         <f>VLOOKUP(A3,Balance!L:S,6,FALSE)</f>
-        <v>10</v>
+        <v>500000</v>
       </c>
       <c r="H3">
         <f>VLOOKUP(A3,Balance!L:S,8,FALSE)</f>
@@ -2355,7 +2375,7 @@
       </c>
       <c r="G4">
         <f>VLOOKUP(A4,Balance!L:S,6,FALSE)</f>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <f>VLOOKUP(A4,Balance!L:S,8,FALSE)</f>
@@ -2402,7 +2422,7 @@
       </c>
       <c r="G5">
         <f>VLOOKUP(A5,Balance!L:S,6,FALSE)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <f>VLOOKUP(A5,Balance!L:S,8,FALSE)</f>
@@ -2449,7 +2469,7 @@
       </c>
       <c r="G6">
         <f>VLOOKUP(A6,Balance!L:S,6,FALSE)</f>
-        <v>2.5</v>
+        <v>500</v>
       </c>
       <c r="H6">
         <f>VLOOKUP(A6,Balance!L:S,8,FALSE)</f>
@@ -3570,7 +3590,7 @@
       </c>
       <c r="G30">
         <f>VLOOKUP(A30,Balance!L:S,6,FALSE)</f>
-        <v>3.5E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H30">
         <f>VLOOKUP(A30,Balance!L:S,8,FALSE)</f>
@@ -3591,6 +3611,52 @@
         <v>0.1</v>
       </c>
       <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31">
+        <v>23500</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31">
+        <v>12000</v>
+      </c>
+      <c r="F31">
+        <f>VLOOKUP(A31,Balance!A:F,3,FALSE)</f>
+        <v>112</v>
+      </c>
+      <c r="G31">
+        <f>VLOOKUP(A31,Balance!L:S,6,FALSE)</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H31">
+        <f>VLOOKUP(A31,Balance!L:S,8,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f>VLOOKUP(A31,Balance!A:F,6,FALSE)</f>
+        <v>103</v>
+      </c>
+      <c r="L31">
+        <f>VLOOKUP(A31,Balance!L:AA,13,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M31">
         <v>0</v>
       </c>
     </row>
@@ -3606,10 +3672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
-  <dimension ref="A5:AB38"/>
+  <dimension ref="A5:AB39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView topLeftCell="L19" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3867,11 +3933,11 @@
         <v>1000</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>500000</v>
       </c>
       <c r="R11" s="8">
         <f>Q11*P11</f>
-        <v>10000</v>
+        <v>500000000</v>
       </c>
       <c r="S11">
         <v>2</v>
@@ -3945,11 +4011,11 @@
         <v>2000</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="R12" s="8">
         <f>Q12*P12*100</f>
-        <v>800000</v>
+        <v>5000000</v>
       </c>
       <c r="S12">
         <v>2</v>
@@ -4023,11 +4089,11 @@
         <v>3000</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R13" s="8">
         <f>Q13*P13</f>
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="S13">
         <f>S11+1</f>
@@ -4102,14 +4168,14 @@
         <v>4000</v>
       </c>
       <c r="Q14">
-        <v>2.5</v>
+        <v>500</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" ref="R14:R25" si="5">Q14*P14*100</f>
-        <v>1000000</v>
+        <v>200000000</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:S38" si="6">S12+1</f>
+        <f t="shared" ref="S14:S39" si="6">S12+1</f>
         <v>3</v>
       </c>
       <c r="T14" s="8">
@@ -5721,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="9">
-        <f>AA34/(N33*$J$5)</f>
+        <f t="shared" ref="AB34:AB39" si="14">AA34/(N33*$J$5)</f>
         <v>0</v>
       </c>
     </row>
@@ -5800,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="9">
-        <f>AA35/(N34*$J$5)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5830,7 +5896,7 @@
         <v>22000</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" ref="N36" si="14">ROUNDUP((M36+1)/100,0)</f>
+        <f t="shared" ref="N36" si="15">ROUNDUP((M36+1)/100,0)</f>
         <v>221</v>
       </c>
       <c r="O36" s="1" t="s">
@@ -5843,7 +5909,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" ref="R36" si="15">Q36*P36*100</f>
+        <f t="shared" ref="R36" si="16">Q36*P36*100</f>
         <v>359.99999999999994</v>
       </c>
       <c r="S36">
@@ -5851,11 +5917,11 @@
         <v>14</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" ref="T36" si="16">S36*P36</f>
+        <f t="shared" ref="T36" si="17">S36*P36</f>
         <v>168000</v>
       </c>
       <c r="U36" s="9">
-        <f t="shared" ref="U36" si="17">T36/(N36*$J$5)</f>
+        <f t="shared" ref="U36" si="18">T36/(N36*$J$5)</f>
         <v>190.04524886877829</v>
       </c>
       <c r="V36" s="1" t="s">
@@ -5868,18 +5934,18 @@
         <v>0.1</v>
       </c>
       <c r="Y36" s="8">
-        <f t="shared" ref="Y36" si="18">X36*W36*100</f>
+        <f t="shared" ref="Y36" si="19">X36*W36*100</f>
         <v>10</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36" s="8">
-        <f t="shared" ref="AA36" si="19">Z36*W36</f>
+        <f t="shared" ref="AA36" si="20">Z36*W36</f>
         <v>0</v>
       </c>
       <c r="AB36" s="9">
-        <f>AA36/(N35*$J$5)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5909,7 +5975,7 @@
         <v>22500</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" ref="N37" si="20">ROUNDUP((M37+1)/100,0)</f>
+        <f t="shared" ref="N37" si="21">ROUNDUP((M37+1)/100,0)</f>
         <v>226</v>
       </c>
       <c r="O37" s="1" t="s">
@@ -5922,7 +5988,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" ref="R37" si="21">Q37*P37*100</f>
+        <f t="shared" ref="R37" si="22">Q37*P37*100</f>
         <v>240</v>
       </c>
       <c r="S37">
@@ -5930,11 +5996,11 @@
         <v>15</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" ref="T37" si="22">S37*P37</f>
+        <f t="shared" ref="T37" si="23">S37*P37</f>
         <v>180000</v>
       </c>
       <c r="U37" s="9">
-        <f t="shared" ref="U37" si="23">T37/(N37*$J$5)</f>
+        <f t="shared" ref="U37" si="24">T37/(N37*$J$5)</f>
         <v>199.11504424778761</v>
       </c>
       <c r="V37" s="1" t="s">
@@ -5947,18 +6013,18 @@
         <v>0.1</v>
       </c>
       <c r="Y37" s="8">
-        <f t="shared" ref="Y37" si="24">X37*W37*100</f>
+        <f t="shared" ref="Y37" si="25">X37*W37*100</f>
         <v>10</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37" s="8">
-        <f t="shared" ref="AA37" si="25">Z37*W37</f>
+        <f t="shared" ref="AA37" si="26">Z37*W37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="9">
-        <f>AA37/(N36*$J$5)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5988,7 +6054,7 @@
         <v>23000</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" ref="N38" si="26">ROUNDUP((M38+1)/100,0)</f>
+        <f t="shared" ref="N38:N39" si="27">ROUNDUP((M38+1)/100,0)</f>
         <v>231</v>
       </c>
       <c r="O38" s="1" t="s">
@@ -5998,22 +6064,22 @@
         <v>12000</v>
       </c>
       <c r="Q38">
-        <v>3.5E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" ref="R38" si="27">Q38*P38*100</f>
-        <v>420</v>
+        <f t="shared" ref="R38:R39" si="28">Q38*P38*100</f>
+        <v>1800</v>
       </c>
       <c r="S38">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" ref="T38" si="28">S38*P38</f>
+        <f t="shared" ref="T38:T39" si="29">S38*P38</f>
         <v>180000</v>
       </c>
       <c r="U38" s="9">
-        <f t="shared" ref="U38" si="29">T38/(N38*$J$5)</f>
+        <f t="shared" ref="U38:U39" si="30">T38/(N38*$J$5)</f>
         <v>194.80519480519482</v>
       </c>
       <c r="V38" s="1" t="s">
@@ -6026,19 +6092,98 @@
         <v>0.1</v>
       </c>
       <c r="Y38" s="8">
-        <f t="shared" ref="Y38" si="30">X38*W38*100</f>
+        <f t="shared" ref="Y38" si="31">X38*W38*100</f>
         <v>10</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38" s="8">
-        <f t="shared" ref="AA38" si="31">Z38*W38</f>
+        <f t="shared" ref="AA38" si="32">Z38*W38</f>
         <v>0</v>
       </c>
       <c r="AB38" s="9">
-        <f>AA38/(N37*$J$5)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39">
+        <v>112</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39">
+        <v>103</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39" s="1">
+        <v>23500</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="27"/>
+        <v>236</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P39" s="7">
+        <v>12000</v>
+      </c>
+      <c r="Q39">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R39" s="8">
+        <f t="shared" si="28"/>
+        <v>300</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="T39" s="8">
+        <f t="shared" si="29"/>
+        <v>192000</v>
+      </c>
+      <c r="U39" s="9">
+        <f t="shared" si="30"/>
+        <v>203.38983050847457</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W39" s="7">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0.1</v>
+      </c>
+      <c r="Y39" s="8">
+        <f t="shared" ref="Y39" si="33">X39*W39*100</f>
+        <v>10</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="8">
+        <f t="shared" ref="AA39" si="34">Z39*W39</f>
+        <v>1</v>
+      </c>
+      <c r="AB39" s="9">
+        <f t="shared" si="14"/>
+        <v>1.0822510822510823E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6113,7 +6258,7 @@
       </c>
       <c r="C8" s="11">
         <f>VLOOKUP(A8,Balance!L:R,7,FALSE)</f>
-        <v>10000</v>
+        <v>500000000</v>
       </c>
       <c r="D8" s="4">
         <v>1000</v>
@@ -6135,7 +6280,7 @@
       </c>
       <c r="C9" s="11">
         <f>VLOOKUP(A9,Balance!L:R,7,FALSE)</f>
-        <v>800000</v>
+        <v>5000000</v>
       </c>
       <c r="D9" s="4">
         <v>2000</v>
@@ -6157,7 +6302,7 @@
       </c>
       <c r="C10" s="11">
         <f>VLOOKUP(A10,Balance!L:R,7,FALSE)</f>
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="D10" s="4">
         <v>3000</v>
@@ -6179,7 +6324,7 @@
       </c>
       <c r="C11" s="11">
         <f>VLOOKUP(A11,Balance!L:R,7,FALSE)</f>
-        <v>1000000</v>
+        <v>200000000</v>
       </c>
       <c r="D11" s="4">
         <v>4000</v>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96337B16-8A8D-436E-8F5B-61D65A3DAB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA39924-FB23-4682-BAAC-02E61A78AE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
@@ -354,7 +354,6 @@
     <author>tc={02BD93A9-17D9-49B0-8F21-FFAA7C55A291}</author>
     <author>tc={8D16DC6C-9A19-4281-B6AD-BD0FF886649A}</author>
     <author>tc={723718A3-DE44-4387-A4D1-38B130E5164B}</author>
-    <author>tc={AF100BCC-709D-42BF-BE19-C7A3A31DBB45}</author>
     <author>tc={6C870E27-5E09-473C-9F9E-075569E552F6}</author>
     <author>tc={E7D99C15-142A-403F-B339-AFF464240516}</author>
     <author>tc={F4B9CD7D-51F3-4B70-A9C2-FB4CC184C7A0}</author>
@@ -640,16 +639,7 @@
     영혼베기 만렙기준 500%</t>
       </text>
     </comment>
-    <comment ref="O32" authorId="34" shapeId="0" xr:uid="{AF100BCC-709D-42BF-BE19-C7A3A31DBB45}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    신선 유물 1개 수준 400%지급
-초보자 기준 신선 1800%</t>
-      </text>
-    </comment>
-    <comment ref="V32" authorId="35" shapeId="0" xr:uid="{6C870E27-5E09-473C-9F9E-075569E552F6}">
+    <comment ref="V32" authorId="34" shapeId="0" xr:uid="{6C870E27-5E09-473C-9F9E-075569E552F6}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -657,7 +647,7 @@
     4신수(극)4마리 합이 대략 400%</t>
       </text>
     </comment>
-    <comment ref="V33" authorId="36" shapeId="0" xr:uid="{E7D99C15-142A-403F-B339-AFF464240516}">
+    <comment ref="V33" authorId="35" shapeId="0" xr:uid="{E7D99C15-142A-403F-B339-AFF464240516}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -665,7 +655,7 @@
     업적에서 얻는 경험치 피해량이 대략 200만%</t>
       </text>
     </comment>
-    <comment ref="V34" authorId="37" shapeId="0" xr:uid="{F4B9CD7D-51F3-4B70-A9C2-FB4CC184C7A0}">
+    <comment ref="V34" authorId="36" shapeId="0" xr:uid="{F4B9CD7D-51F3-4B70-A9C2-FB4CC184C7A0}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -673,7 +663,7 @@
     소탕량 증가는 10% 지급</t>
       </text>
     </comment>
-    <comment ref="V35" authorId="38" shapeId="0" xr:uid="{11F5CD03-3691-461A-A5D3-9F83C31923EE}">
+    <comment ref="V35" authorId="37" shapeId="0" xr:uid="{11F5CD03-3691-461A-A5D3-9F83C31923EE}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -681,7 +671,7 @@
     소탕량 증가는 10% 지급</t>
       </text>
     </comment>
-    <comment ref="V36" authorId="39" shapeId="0" xr:uid="{97CF0818-D8A4-44B4-86D1-C904339C6FDC}">
+    <comment ref="V36" authorId="38" shapeId="0" xr:uid="{97CF0818-D8A4-44B4-86D1-C904339C6FDC}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -694,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="191">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1308,7 +1298,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>태극 조각 소탕량 증가(%)</t>
+    <t>guimoon30</t>
+  </si>
+  <si>
+    <t>사흑 31 귀문</t>
+  </si>
+  <si>
+    <t>창생 31 귀문</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>태극 조각 획득량 증가(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2175,10 +2177,6 @@
   <threadedComment ref="O31" dT="2023-07-05T02:16:56.25" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{723718A3-DE44-4387-A4D1-38B130E5164B}">
     <text>영혼베기 만렙기준 500%</text>
   </threadedComment>
-  <threadedComment ref="O32" dT="2023-07-05T02:57:22.34" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{AF100BCC-709D-42BF-BE19-C7A3A31DBB45}">
-    <text>신선 유물 1개 수준 400%지급
-초보자 기준 신선 1800%</text>
-  </threadedComment>
   <threadedComment ref="V32" dT="2023-07-05T02:30:29.72" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{6C870E27-5E09-473C-9F9E-075569E552F6}">
     <text>4신수(극)4마리 합이 대략 400%</text>
   </threadedComment>
@@ -2199,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3660,6 +3658,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32">
+        <v>24000</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32">
+        <v>12000</v>
+      </c>
+      <c r="F32">
+        <f>VLOOKUP(A32,Balance!A:F,3,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="G32">
+        <f>VLOOKUP(A32,Balance!L:S,6,FALSE)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H32">
+        <f>VLOOKUP(A32,Balance!L:S,8,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f>VLOOKUP(A32,Balance!A:F,6,FALSE)</f>
+        <v>69</v>
+      </c>
+      <c r="L32">
+        <f>VLOOKUP(A32,Balance!L:AA,13,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -3672,10 +3716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
-  <dimension ref="A5:AB39"/>
+  <dimension ref="A5:AB40"/>
   <sheetViews>
-    <sheetView topLeftCell="L19" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView topLeftCell="O25" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4175,7 +4219,7 @@
         <v>200000000</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:S39" si="6">S12+1</f>
+        <f t="shared" ref="S14:S40" si="6">S12+1</f>
         <v>3</v>
       </c>
       <c r="T14" s="8">
@@ -6121,7 +6165,7 @@
         <v>184</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F39">
         <v>103</v>
@@ -6171,19 +6215,98 @@
         <v>0.1</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" ref="Y39" si="33">X39*W39*100</f>
+        <f t="shared" ref="Y39:Y40" si="33">X39*W39*100</f>
         <v>10</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="8">
-        <f t="shared" ref="AA39" si="34">Z39*W39</f>
-        <v>1</v>
+        <f t="shared" ref="AA39:AA40" si="34">Z39*W39</f>
+        <v>0</v>
       </c>
       <c r="AB39" s="9">
         <f t="shared" si="14"/>
-        <v>1.0822510822510823E-3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40">
+        <v>83</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40">
+        <v>69</v>
+      </c>
+      <c r="L40">
+        <v>30</v>
+      </c>
+      <c r="M40" s="1">
+        <v>24000</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" ref="N40" si="35">ROUNDUP((M40+1)/100,0)</f>
+        <v>241</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P40" s="7">
+        <v>12000</v>
+      </c>
+      <c r="Q40">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="R40" s="8">
+        <f t="shared" ref="R40" si="36">Q40*P40*100</f>
+        <v>600</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="T40" s="8">
+        <f t="shared" ref="T40" si="37">S40*P40</f>
+        <v>192000</v>
+      </c>
+      <c r="U40" s="9">
+        <f t="shared" ref="U40" si="38">T40/(N40*$J$5)</f>
+        <v>199.1701244813278</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W40" s="7">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0.1</v>
+      </c>
+      <c r="Y40" s="8">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="8">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="9">
+        <f t="shared" ref="AB40" si="39">AA40/(N39*$J$5)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA39924-FB23-4682-BAAC-02E61A78AE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75034A60-5832-44D2-BCC5-7DE78E8DA91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonTable" sheetId="1" r:id="rId1"/>
@@ -359,6 +359,7 @@
     <author>tc={F4B9CD7D-51F3-4B70-A9C2-FB4CC184C7A0}</author>
     <author>tc={11F5CD03-3691-461A-A5D3-9F83C31923EE}</author>
     <author>tc={97CF0818-D8A4-44B4-86D1-C904339C6FDC}</author>
+    <author>tc={44539CB7-9AD0-4386-A4D7-4B8082A977C7}</author>
   </authors>
   <commentList>
     <comment ref="J8" authorId="0" shapeId="0" xr:uid="{610AE6A3-A334-4026-9CFB-D29E6747B6D7}">
@@ -679,12 +680,20 @@
     소탕량 증가는 10% 지급</t>
       </text>
     </comment>
+    <comment ref="V41" authorId="39" shapeId="0" xr:uid="{44539CB7-9AD0-4386-A4D7-4B8082A977C7}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    소탕량 증가는 10% 지급</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="194">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1312,6 +1321,15 @@
   <si>
     <t>태극 조각 획득량 증가(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guimoon31</t>
+  </si>
+  <si>
+    <t>사흑 32 귀문</t>
+  </si>
+  <si>
+    <t>창생 32 귀문</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1350,6 +1368,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2192,15 +2216,18 @@
   <threadedComment ref="V36" dT="2023-07-05T02:58:14.63" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{97CF0818-D8A4-44B4-86D1-C904339C6FDC}">
     <text>소탕량 증가는 10% 지급</text>
   </threadedComment>
+  <threadedComment ref="V41" dT="2023-07-05T02:58:14.63" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{44539CB7-9AD0-4386-A4D7-4B8082A977C7}">
+    <text>소탕량 증가는 10% 지급</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3704,6 +3731,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33">
+        <v>24500</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33">
+        <v>12000</v>
+      </c>
+      <c r="F33">
+        <f>VLOOKUP(A33,Balance!A:F,3,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="G33">
+        <f>VLOOKUP(A33,Balance!L:S,6,FALSE)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H33">
+        <f>VLOOKUP(A33,Balance!L:S,8,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <f>VLOOKUP(A33,Balance!A:F,6,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="L33">
+        <f>VLOOKUP(A33,Balance!L:AA,13,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -3716,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
-  <dimension ref="A5:AB40"/>
+  <dimension ref="A5:AB41"/>
   <sheetViews>
-    <sheetView topLeftCell="O25" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4219,7 +4292,7 @@
         <v>200000000</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:S40" si="6">S12+1</f>
+        <f t="shared" ref="S14:S41" si="6">S12+1</f>
         <v>3</v>
       </c>
       <c r="T14" s="8">
@@ -6256,7 +6329,7 @@
         <v>24000</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" ref="N40" si="35">ROUNDUP((M40+1)/100,0)</f>
+        <f t="shared" ref="N40:N41" si="35">ROUNDUP((M40+1)/100,0)</f>
         <v>241</v>
       </c>
       <c r="O40" s="1" t="s">
@@ -6269,7 +6342,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" ref="R40" si="36">Q40*P40*100</f>
+        <f t="shared" ref="R40:R41" si="36">Q40*P40*100</f>
         <v>600</v>
       </c>
       <c r="S40">
@@ -6277,11 +6350,11 @@
         <v>16</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" ref="T40" si="37">S40*P40</f>
+        <f t="shared" ref="T40:T41" si="37">S40*P40</f>
         <v>192000</v>
       </c>
       <c r="U40" s="9">
-        <f t="shared" ref="U40" si="38">T40/(N40*$J$5)</f>
+        <f t="shared" ref="U40:U41" si="38">T40/(N40*$J$5)</f>
         <v>199.1701244813278</v>
       </c>
       <c r="V40" s="1" t="s">
@@ -6305,7 +6378,86 @@
         <v>0</v>
       </c>
       <c r="AB40" s="9">
-        <f t="shared" ref="AB40" si="39">AA40/(N39*$J$5)</f>
+        <f t="shared" ref="AB40:AB41" si="39">AA40/(N39*$J$5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41">
+        <v>31</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41">
+        <v>105</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41">
+        <v>70</v>
+      </c>
+      <c r="L41">
+        <v>31</v>
+      </c>
+      <c r="M41" s="1">
+        <v>24500</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="35"/>
+        <v>246</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P41" s="7">
+        <v>12000</v>
+      </c>
+      <c r="Q41">
+        <v>2E-3</v>
+      </c>
+      <c r="R41" s="8">
+        <f t="shared" si="36"/>
+        <v>2400</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="T41" s="8">
+        <f t="shared" si="37"/>
+        <v>204000</v>
+      </c>
+      <c r="U41" s="9">
+        <f t="shared" si="38"/>
+        <v>207.3170731707317</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W41" s="7">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>0.1</v>
+      </c>
+      <c r="Y41" s="8">
+        <f t="shared" ref="Y41" si="40">X41*W41*100</f>
+        <v>10</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="8">
+        <f t="shared" ref="AA41" si="41">Z41*W41</f>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="9">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75034A60-5832-44D2-BCC5-7DE78E8DA91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFE158C-373C-4898-9CE8-4C51232A3D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonTable" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="198">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1330,6 +1330,20 @@
   </si>
   <si>
     <t>창생 32 귀문</t>
+  </si>
+  <si>
+    <t>업화 베기(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24500</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>guimoon32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1339,7 +1353,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,12 +1382,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1590,6 +1598,50 @@
         <a:xfrm>
           <a:off x="9153525" y="6257925"/>
           <a:ext cx="1848108" cy="2010056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1438432</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80CEB4D-6F10-D74E-8DB4-722D36F528ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9191625" y="8715375"/>
+          <a:ext cx="1124107" cy="1428949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2224,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3777,6 +3829,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34">
+        <v>25000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34">
+        <v>12000</v>
+      </c>
+      <c r="F34">
+        <f>VLOOKUP(A34,Balance!A:F,3,FALSE)</f>
+        <v>121</v>
+      </c>
+      <c r="G34">
+        <f>VLOOKUP(A34,Balance!L:S,6,FALSE)</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="H34">
+        <f>VLOOKUP(A34,Balance!L:S,8,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f>VLOOKUP(A34,Balance!A:F,6,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="L34">
+        <f>VLOOKUP(A34,Balance!L:AA,13,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -3789,10 +3887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
-  <dimension ref="A5:AB41"/>
+  <dimension ref="A5:AB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42:Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4292,7 +4390,7 @@
         <v>200000000</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:S41" si="6">S12+1</f>
+        <f t="shared" ref="S14:S42" si="6">S12+1</f>
         <v>3</v>
       </c>
       <c r="T14" s="8">
@@ -6393,7 +6491,7 @@
         <v>105</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>36</v>
@@ -6459,6 +6557,109 @@
       <c r="AB41" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42">
+        <v>32</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42">
+        <v>121</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42">
+        <v>71</v>
+      </c>
+      <c r="L42">
+        <v>32</v>
+      </c>
+      <c r="M42" s="1">
+        <v>25000</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" ref="N42" si="42">ROUNDUP((M42+1)/100,0)</f>
+        <v>251</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P42" s="7">
+        <v>12000</v>
+      </c>
+      <c r="Q42">
+        <v>1.5E-3</v>
+      </c>
+      <c r="R42" s="8">
+        <f t="shared" ref="R42" si="43">Q42*P42*100</f>
+        <v>1800</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="T42" s="8">
+        <f t="shared" ref="T42" si="44">S42*P42</f>
+        <v>204000</v>
+      </c>
+      <c r="U42" s="9">
+        <f t="shared" ref="U42" si="45">T42/(N42*$J$5)</f>
+        <v>203.18725099601593</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W42" s="7">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0.1</v>
+      </c>
+      <c r="Y42" s="8">
+        <f t="shared" ref="Y42" si="46">X42*W42*100</f>
+        <v>10</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="8">
+        <f t="shared" ref="AA42" si="47">Z42*W42</f>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="9">
+        <f t="shared" ref="AB42" si="48">AA42/(N41*$J$5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="E43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="E44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="E45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFE158C-373C-4898-9CE8-4C51232A3D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849700F7-C93B-40DF-A813-E675E5492086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
@@ -359,7 +359,6 @@
     <author>tc={F4B9CD7D-51F3-4B70-A9C2-FB4CC184C7A0}</author>
     <author>tc={11F5CD03-3691-461A-A5D3-9F83C31923EE}</author>
     <author>tc={97CF0818-D8A4-44B4-86D1-C904339C6FDC}</author>
-    <author>tc={44539CB7-9AD0-4386-A4D7-4B8082A977C7}</author>
   </authors>
   <commentList>
     <comment ref="J8" authorId="0" shapeId="0" xr:uid="{610AE6A3-A334-4026-9CFB-D29E6747B6D7}">
@@ -680,20 +679,12 @@
     소탕량 증가는 10% 지급</t>
       </text>
     </comment>
-    <comment ref="V41" authorId="39" shapeId="0" xr:uid="{44539CB7-9AD0-4386-A4D7-4B8082A977C7}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    소탕량 증가는 10% 지급</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="200">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1344,6 +1335,13 @@
   <si>
     <t>guimoon32</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해탈 베기(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guimoon33</t>
   </si>
 </sst>
 </file>
@@ -2268,18 +2266,15 @@
   <threadedComment ref="V36" dT="2023-07-05T02:58:14.63" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{97CF0818-D8A4-44B4-86D1-C904339C6FDC}">
     <text>소탕량 증가는 10% 지급</text>
   </threadedComment>
-  <threadedComment ref="V41" dT="2023-07-05T02:58:14.63" personId="{628B0C78-ACF8-4000-8685-62B6E703BCDF}" id="{44539CB7-9AD0-4386-A4D7-4B8082A977C7}">
-    <text>소탕량 증가는 10% 지급</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3875,6 +3870,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35">
+        <v>25500</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35">
+        <v>12000</v>
+      </c>
+      <c r="F35">
+        <f>VLOOKUP(A35,Balance!A:F,3,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="G35">
+        <f>VLOOKUP(A35,Balance!L:S,6,FALSE)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H35">
+        <f>VLOOKUP(A35,Balance!L:S,8,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <f>VLOOKUP(A35,Balance!A:F,6,FALSE)</f>
+        <v>82</v>
+      </c>
+      <c r="L35">
+        <f>VLOOKUP(A35,Balance!L:AA,13,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
@@ -3889,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE63C70-F3C0-4772-B96E-A9728949F9C3}">
   <dimension ref="A5:AB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42:Y42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4390,7 +4431,7 @@
         <v>200000000</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14:S42" si="6">S12+1</f>
+        <f t="shared" ref="S14:S43" si="6">S12+1</f>
         <v>3</v>
       </c>
       <c r="T14" s="8">
@@ -6377,7 +6418,7 @@
         <v>203.38983050847457</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="W39" s="7">
         <v>1</v>
@@ -6535,7 +6576,7 @@
         <v>207.3170731707317</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W41" s="7">
         <v>1</v>
@@ -6614,7 +6655,7 @@
         <v>203.18725099601593</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="W42" s="7">
         <v>1</v>
@@ -6639,11 +6680,82 @@
       </c>
     </row>
     <row r="43" spans="1:28">
+      <c r="A43">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43">
+        <v>122</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>146</v>
       </c>
       <c r="F43">
         <v>82</v>
+      </c>
+      <c r="L43">
+        <v>33</v>
+      </c>
+      <c r="M43" s="1">
+        <v>25500</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" ref="N43" si="49">ROUNDUP((M43+1)/100,0)</f>
+        <v>256</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P43" s="7">
+        <v>12000</v>
+      </c>
+      <c r="Q43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R43" s="8">
+        <f t="shared" ref="R43" si="50">Q43*P43*100</f>
+        <v>6000</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="T43" s="8">
+        <f t="shared" ref="T43" si="51">S43*P43</f>
+        <v>216000</v>
+      </c>
+      <c r="U43" s="9">
+        <f t="shared" ref="U43" si="52">T43/(N43*$J$5)</f>
+        <v>210.9375</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W43" s="7">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0.1</v>
+      </c>
+      <c r="Y43" s="8">
+        <f t="shared" ref="Y43" si="53">X43*W43*100</f>
+        <v>10</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="8">
+        <f t="shared" ref="AA43" si="54">Z43*W43</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="9">
+        <f t="shared" ref="AB43" si="55">AA43/(N42*$J$5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:28">

--- a/Assets/06.Table/GuimoonTable.xlsx
+++ b/Assets/06.Table/GuimoonTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849700F7-C93B-40DF-A813-E675E5492086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3302E77-9B06-4823-8AFC-985BB534A123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA51B860-26D8-49B7-806C-C1903D7D8AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="GuimoonTable" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="204">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,6 +1342,22 @@
   </si>
   <si>
     <t>guimoon33</t>
+  </si>
+  <si>
+    <t>사흑 33 귀문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흑 34 귀문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창생 33 귀문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창생 34 귀문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2273,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64A9FC3-BAF3-4C0D-91C0-F90F481D7C8B}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3835,7 +3851,7 @@
         <v>25000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E34">
         <v>12000</v>
@@ -3853,7 +3869,7 @@
         <v>17</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -3881,7 +3897,7 @@
         <v>25500</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E35">
         <v>12000</v>
@@ -3899,7 +3915,7 @@
         <v>18</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="J35">
         <v>1</v>
